--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Erstes Bauteil angekommen. Betriebssystem installiert, fertig für Tests</t>
+  </si>
+  <si>
+    <t>Kommunikation1.jpg</t>
+  </si>
+  <si>
+    <t>Versuche zur Bildübertragung. Rechts das gesendete, links das empfangene :)</t>
   </si>
 </sst>
 </file>
@@ -352,16 +358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -387,6 +393,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43036</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Versuche zur Bildübertragung. Rechts das gesendete, links das empfangene :)</t>
+  </si>
+  <si>
+    <t>Bestellt.jpg</t>
+  </si>
+  <si>
+    <t>Alle Teile sind Bestellt. Erwarten den China Schrott. Weihnachtsferien zusammenbasteln</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +410,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Alle Teile sind Bestellt. Erwarten den China Schrott. Weihnachtsferien zusammenbasteln</t>
+  </si>
+  <si>
+    <t>Kontrollschaltung.pdf</t>
+  </si>
+  <si>
+    <t>Schaltplan fertiggestellt grundstein für weitere Planung gelegt</t>
   </si>
 </sst>
 </file>
@@ -364,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +427,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Schaltplan fertiggestellt grundstein für weitere Planung gelegt</t>
+  </si>
+  <si>
+    <t>Blumen.jpg</t>
+  </si>
+  <si>
+    <t>Blumen gebastelt. Wer braucht schon die Natur. Ab zum Datenerstellen</t>
   </si>
 </sst>
 </file>
@@ -370,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +444,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43051</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Blumen gebastelt. Wer braucht schon die Natur. Ab zum Datenerstellen</t>
+  </si>
+  <si>
+    <t>Alles Da.jpg; Angekommen.jpeg</t>
+  </si>
+  <si>
+    <t>Die Teile sind alle Da! Viel früher als erwartet. Auf die Chinesen ist verlass! Auf zum Löten (Raspi + Kamera fehlen)</t>
   </si>
 </sst>
 </file>
@@ -376,16 +382,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,6 +461,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43058</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>Die Teile sind alle Da! Viel früher als erwartet. Auf die Chinesen ist verlass! Auf zum Löten (Raspi + Kamera fehlen)</t>
+  </si>
+  <si>
+    <t>Außen.JPG</t>
+  </si>
+  <si>
+    <t>Real live Blumenbilder gemacht. Fertig um den Algorithmus zu entwickeln</t>
+  </si>
+  <si>
+    <t>Wahnsinn.JPG</t>
+  </si>
+  <si>
+    <t>Was haben wir uns angetan?</t>
+  </si>
+  <si>
+    <t>breadboard_1.jpg</t>
+  </si>
+  <si>
+    <t>Hardware… Der Frust beginnt</t>
   </si>
 </sst>
 </file>
@@ -382,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -417,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -428,7 +446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -439,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43017</v>
       </c>
@@ -450,7 +468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -461,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -470,6 +488,39 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43063</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43063</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43063</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Hardware… Der Frust beginnt</t>
+  </si>
+  <si>
+    <t>Da ist noch etwas zu verbsessern :/</t>
+  </si>
+  <si>
+    <t>Blumigenachbarschaft.jpg</t>
+  </si>
+  <si>
+    <t>Geogebra_kontrast.jpg</t>
+  </si>
+  <si>
+    <t>Verschiedene auswahl für grauheitsberechnung der Pixel</t>
+  </si>
+  <si>
+    <t>Blume wird erkannt.jpg</t>
+  </si>
+  <si>
+    <t>Blume wird unter Optimalbedingungen erkannt. Müsste mit optimierungen und zusammenarbeit mit sensoren besser laufen</t>
   </si>
 </sst>
 </file>
@@ -400,20 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -435,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -446,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -457,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43017</v>
       </c>
@@ -468,7 +486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -479,7 +497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -490,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43063</v>
       </c>
@@ -501,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -512,7 +530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -521,6 +539,39 @@
       </c>
       <c r="C10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43071</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43071</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43071</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Blume wird unter Optimalbedingungen erkannt. Müsste mit optimierungen und zusammenarbeit mit sensoren besser laufen</t>
+  </si>
+  <si>
+    <t>3fachtest.jpg</t>
+  </si>
+  <si>
+    <t>Muster zur Blumenerkennung wurde auf 3 Pixel erweitert. Erhöhte akkuratheit (angepasste Kontrastformel)</t>
+  </si>
+  <si>
+    <t>Simulation.jpg</t>
+  </si>
+  <si>
+    <t>Für das Anschalulichere Verständnis!</t>
   </si>
 </sst>
 </file>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +586,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43077</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43078</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Für das Anschalulichere Verständnis!</t>
+  </si>
+  <si>
+    <t>Mathematik.jpg</t>
+  </si>
+  <si>
+    <t>Trigonometrie, Formeln, Kamera. Ausrechnen von Pixelgröße zu Strecke von der Drohne, Strecke auf dem Boden von der Bildhöhe usw</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +614,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43079</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Trigonometrie, Formeln, Kamera. Ausrechnen von Pixelgröße zu Strecke von der Drohne, Strecke auf dem Boden von der Bildhöhe usw</t>
+  </si>
+  <si>
+    <t>i2c_protokoll.jpg</t>
+  </si>
+  <si>
+    <t>I2C mit Raspberry Pi - Geräte werden erkannt (77: Höhe, 68: Sensoren, 48: Analogschnittstelle)</t>
+  </si>
+  <si>
+    <t>I2C Breadboard 1</t>
+  </si>
+  <si>
+    <t>Schaltplan z.T. Aufgebaut (Sensoren I2C teil)</t>
+  </si>
+  <si>
+    <t>Hochstromplatine.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erste Platine gelötet (Danke Jan ;)) </t>
   </si>
 </sst>
 </file>
@@ -436,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +643,39 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43090</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43090</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43090</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t xml:space="preserve">Erste Platine gelötet (Danke Jan ;)) </t>
+  </si>
+  <si>
+    <t>Ultraschall_funktionier.jpg</t>
+  </si>
+  <si>
+    <t>Ultraschallsensortest positiv</t>
+  </si>
+  <si>
+    <t>Breadboard_fertig.jpg</t>
+  </si>
+  <si>
+    <t>Schaltung auf Steckbrett fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +688,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Schaltung auf Steckbrett fertiggestellt</t>
+  </si>
+  <si>
+    <t>Video erstes einschalten stromkreis</t>
+  </si>
+  <si>
+    <t>Erstes mal an</t>
+  </si>
+  <si>
+    <t>28.12.2017-2</t>
+  </si>
+  <si>
+    <t>28.12.2017-1.mov</t>
   </si>
 </sst>
 </file>
@@ -466,20 +478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -501,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -512,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -523,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43017</v>
       </c>
@@ -534,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -545,7 +557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -556,7 +568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43063</v>
       </c>
@@ -567,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -578,7 +590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -589,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43071</v>
       </c>
@@ -600,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -611,7 +623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -622,7 +634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43077</v>
       </c>
@@ -633,7 +645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43078</v>
       </c>
@@ -644,7 +656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43079</v>
       </c>
@@ -655,7 +667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43090</v>
       </c>
@@ -666,7 +678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43090</v>
       </c>
@@ -677,7 +689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -688,7 +700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43091</v>
       </c>
@@ -699,7 +711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43091</v>
       </c>
@@ -709,6 +721,31 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43097</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43097</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>28.12.2017-1.mov</t>
+  </si>
+  <si>
+    <t>Kontrollschaltung2.pdf</t>
+  </si>
+  <si>
+    <t>Kontrollschaltung überarbeitet, gleicht nun gebautem</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,9 +751,18 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>43097</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Kontrollschaltung überarbeitet, gleicht nun gebautem</t>
+  </si>
+  <si>
+    <t>Addressen hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -484,20 +487,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -519,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -530,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -541,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43017</v>
       </c>
@@ -552,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -563,7 +566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -574,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43063</v>
       </c>
@@ -585,7 +588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -596,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -607,7 +610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43071</v>
       </c>
@@ -618,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -629,7 +632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -640,7 +643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43077</v>
       </c>
@@ -651,7 +654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43078</v>
       </c>
@@ -662,7 +665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43079</v>
       </c>
@@ -673,7 +676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43090</v>
       </c>
@@ -684,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43090</v>
       </c>
@@ -695,7 +698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -706,7 +709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43091</v>
       </c>
@@ -717,7 +720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43091</v>
       </c>
@@ -728,7 +731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43097</v>
       </c>
@@ -739,7 +742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43097</v>
       </c>
@@ -750,7 +753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -759,6 +762,17 @@
       </c>
       <c r="C24" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42737</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,54 @@
   </si>
   <si>
     <t>Addressen hinzugefügt</t>
+  </si>
+  <si>
+    <t>2018-01-01 1.jpg</t>
+  </si>
+  <si>
+    <t>Gehäuse zusammengeklebt</t>
+  </si>
+  <si>
+    <t>Klassen/ Funktionsdiagramm überblicksartig für die anstehende Programmierarbeit</t>
+  </si>
+  <si>
+    <t>Setup für ersten Drohnenflug</t>
+  </si>
+  <si>
+    <t>3 Rotoren drehen sich zum ersten mal</t>
+  </si>
+  <si>
+    <t>Halbfertige Drohne, Kontrollboard bei Claus</t>
+  </si>
+  <si>
+    <t>2018-01-03 2.jpg</t>
+  </si>
+  <si>
+    <t>2018-01-03 3.mov</t>
+  </si>
+  <si>
+    <t>2018-01-03 4.mov</t>
+  </si>
+  <si>
+    <t>2018-01-03 5.jpg</t>
+  </si>
+  <si>
+    <t>2018-01-03 6.PNG</t>
+  </si>
+  <si>
+    <t>Zenhub eingerichtet, jetzt können wir geplant weiterarbeiten</t>
+  </si>
+  <si>
+    <t>2018-01-03 1.PNG</t>
+  </si>
+  <si>
+    <t>Zenhub zeigt uns jetzt auch Burndowncharts an.</t>
+  </si>
+  <si>
+    <t>2018-01-03 7.PNG</t>
+  </si>
+  <si>
+    <t>Die nächsten Meilensteine die wir uns al Ziel gesetzt haben</t>
   </si>
 </sst>
 </file>
@@ -487,20 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -522,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -533,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -544,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43017</v>
       </c>
@@ -555,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -566,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -577,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43063</v>
       </c>
@@ -588,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -599,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -610,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43071</v>
       </c>
@@ -621,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -632,7 +680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -643,7 +691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43077</v>
       </c>
@@ -654,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43078</v>
       </c>
@@ -665,7 +713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43079</v>
       </c>
@@ -676,7 +724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43090</v>
       </c>
@@ -687,7 +735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43090</v>
       </c>
@@ -698,7 +746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -709,7 +757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43091</v>
       </c>
@@ -720,7 +768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43091</v>
       </c>
@@ -731,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43097</v>
       </c>
@@ -742,7 +790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43097</v>
       </c>
@@ -753,7 +801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -764,7 +812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42737</v>
       </c>
@@ -773,6 +821,94 @@
       </c>
       <c r="C25" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Datum</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>Die nächsten Meilensteine die wir uns al Ziel gesetzt haben</t>
+  </si>
+  <si>
+    <t>2018-01-04 1.JPEG</t>
+  </si>
+  <si>
+    <t>Clustering fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -535,20 +541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -570,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -581,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -592,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43017</v>
       </c>
@@ -603,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -614,7 +620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -625,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43063</v>
       </c>
@@ -636,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -647,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -658,7 +664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43071</v>
       </c>
@@ -669,7 +675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -680,7 +686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -691,7 +697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43077</v>
       </c>
@@ -702,7 +708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43078</v>
       </c>
@@ -713,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43079</v>
       </c>
@@ -724,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43090</v>
       </c>
@@ -735,7 +741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43090</v>
       </c>
@@ -746,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -757,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43091</v>
       </c>
@@ -768,7 +774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43091</v>
       </c>
@@ -779,7 +785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43097</v>
       </c>
@@ -790,7 +796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43097</v>
       </c>
@@ -801,7 +807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -812,9 +818,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42737</v>
+        <v>43102</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -823,7 +829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43101</v>
       </c>
@@ -834,9 +840,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -845,9 +851,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -856,9 +862,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -867,9 +873,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -878,9 +884,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -889,9 +895,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
@@ -900,15 +906,26 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43160</v>
+        <v>43103</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>Clustering fertiggestellt</t>
+  </si>
+  <si>
+    <t>2018-01.05  1.JPEG</t>
+  </si>
+  <si>
+    <t>Blumen Validiert und Radienberechnung</t>
+  </si>
+  <si>
+    <t>2018-01-07 1.JPEG</t>
+  </si>
+  <si>
+    <t>Abstand zu Blumen berechnet</t>
+  </si>
+  <si>
+    <t>2018-01-07 2.JPEG</t>
+  </si>
+  <si>
+    <t>Optimierungen an C#-Programm durchgeführt</t>
   </si>
 </sst>
 </file>
@@ -541,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,6 +946,39 @@
         <v>67</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Datum</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Blumen gebastelt. Wer braucht schon die Natur. Ab zum Datenerstellen</t>
   </si>
   <si>
-    <t>Alles Da.jpg; Angekommen.jpeg</t>
-  </si>
-  <si>
     <t>Die Teile sind alle Da! Viel früher als erwartet. Auf die Chinesen ist verlass! Auf zum Löten (Raspi + Kamera fehlen)</t>
   </si>
   <si>
@@ -241,6 +238,21 @@
   </si>
   <si>
     <t>Optimierungen an C#-Programm durchgeführt</t>
+  </si>
+  <si>
+    <t>Angekommen.jpeg</t>
+  </si>
+  <si>
+    <t>Alles Da.jpg;</t>
+  </si>
+  <si>
+    <t>Die Excel Tabelle</t>
+  </si>
+  <si>
+    <t>2017-12.11.jpg</t>
+  </si>
+  <si>
+    <t>Raspberry Pi gehäuse fertig. Testdruck geschaftt. Etwas verspätet!</t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +630,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43017</v>
+        <v>43048</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -643,21 +655,21 @@
         <v>43058</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43063</v>
+        <v>43058</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,10 +677,10 @@
         <v>43063</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,21 +688,21 @@
         <v>43063</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43071</v>
+        <v>43063</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,10 +710,10 @@
         <v>43071</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,65 +721,65 @@
         <v>43071</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43077</v>
+        <v>43071</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43078</v>
+        <v>43077</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43079</v>
+        <v>43078</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43090</v>
+        <v>43079</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43090</v>
+        <v>43080</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,54 +787,54 @@
         <v>43090</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43091</v>
+        <v>43090</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43091</v>
+        <v>43090</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43097</v>
+        <v>43091</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43097</v>
+        <v>43091</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,54 +842,54 @@
         <v>43097</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43102</v>
+        <v>43097</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43101</v>
+        <v>43097</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43103</v>
+        <v>43102</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,10 +897,10 @@
         <v>43103</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,10 +908,10 @@
         <v>43103</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,10 +919,10 @@
         <v>43103</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +930,10 @@
         <v>43103</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,54 +941,76 @@
         <v>43103</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43104</v>
+        <v>43103</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43105</v>
+        <v>43103</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43107</v>
+        <v>43104</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>43107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -153,9 +153,6 @@
     <t>Erstes mal an</t>
   </si>
   <si>
-    <t>28.12.2017-2</t>
-  </si>
-  <si>
     <t>28.12.2017-1.mov</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Raspberry Pi gehäuse fertig. Testdruck geschaftt. Etwas verspätet!</t>
+  </si>
+  <si>
+    <t>2017-12-28 2</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>43058</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -666,10 +666,10 @@
         <v>43058</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,10 +776,10 @@
         <v>43080</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>43097</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -853,7 +853,7 @@
         <v>43097</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -864,10 +864,10 @@
         <v>43097</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>43102</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>43101</v>
       </c>
       <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>43103</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>43103</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>43103</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>43103</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>43103</v>
       </c>
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>43103</v>
       </c>
       <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +963,10 @@
         <v>43103</v>
       </c>
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>43104</v>
       </c>
       <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>43105</v>
       </c>
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>43107</v>
       </c>
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>43107</v>
       </c>
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>2017-12-28 2</t>
+  </si>
+  <si>
+    <t>2018-01-11.pdf</t>
+  </si>
+  <si>
+    <t>Kontrollschaltung angepasst für arduino</t>
   </si>
 </sst>
 </file>
@@ -571,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1019,17 @@
         <v>71</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Datum</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>Kontrollschaltung angepasst für arduino</t>
+  </si>
+  <si>
+    <t>Kontrollschaltung upgrade. Ziemlicht dicht diese PCBs</t>
+  </si>
+  <si>
+    <t>15.01.2018.jpg</t>
+  </si>
+  <si>
+    <t>Drohne in vorläufiger Pracht (ohne Raspberry)</t>
+  </si>
+  <si>
+    <t>16.01.2018.jpg</t>
+  </si>
+  <si>
+    <t>14-01-2018.jpg</t>
+  </si>
+  <si>
+    <t>Raspberry PI 3 model B+ zum entwickeln neben dem anderen Raspberry PI</t>
   </si>
 </sst>
 </file>
@@ -577,20 +595,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -612,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -623,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -634,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -645,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -656,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -667,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -678,7 +696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -689,7 +707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -700,7 +718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -711,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -722,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -733,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -744,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -755,7 +773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -766,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -777,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -788,7 +806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -799,7 +817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -810,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -821,7 +839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -832,7 +850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -843,7 +861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -854,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -865,7 +883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -876,7 +894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -887,7 +905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -898,7 +916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -909,7 +927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -920,7 +938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -931,7 +949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -942,7 +960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -953,7 +971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -964,7 +982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -975,7 +993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1028,6 +1046,39 @@
       </c>
       <c r="C40" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Datum</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>Raspberry PI 3 model B+ zum entwickeln neben dem anderen Raspberry PI</t>
+  </si>
+  <si>
+    <t>18-01-2018 1.avi</t>
+  </si>
+  <si>
+    <t>Erster (instabieler) Flug</t>
+  </si>
+  <si>
+    <t>18-01-2018 2.pdf</t>
+  </si>
+  <si>
+    <t>Kontrollschaltung geupdatet</t>
   </si>
 </sst>
 </file>
@@ -595,20 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -630,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -641,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -652,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -663,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -674,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -685,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -696,7 +708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -707,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -718,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -729,7 +741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -740,7 +752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -751,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -762,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -773,7 +785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -784,7 +796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -795,7 +807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -806,7 +818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -817,7 +829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -828,7 +840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -839,7 +851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -850,7 +862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -861,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -872,7 +884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -883,7 +895,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -894,7 +906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -905,7 +917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -916,7 +928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -927,7 +939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -938,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -949,7 +961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -960,7 +972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -971,7 +983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -982,7 +994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1079,6 +1091,28 @@
       </c>
       <c r="C43" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Datum</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>Kontrollschaltung geupdatet</t>
+  </si>
+  <si>
+    <t>2018-03-03.JPG</t>
+  </si>
+  <si>
+    <t>Kommunikatrionsversuche Arduino Raspberry</t>
+  </si>
+  <si>
+    <t>2018-03-05.JPG</t>
+  </si>
+  <si>
+    <t>Random Cat-Pic</t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1127,28 @@
         <v>89</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>Datum</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Kameraproblem gelöst. Bild ca. 500 = 2fps. Bildgröße und RawBayer ausschlaggebend</t>
+  </si>
+  <si>
+    <t>2018-03-18.jpg</t>
+  </si>
+  <si>
+    <t>Gui der Basisstation Version 0.1</t>
   </si>
 </sst>
 </file>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,6 +1181,17 @@
         <v>96</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43177</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Datum</t>
   </si>
@@ -321,6 +321,24 @@
   </si>
   <si>
     <t>Gui der Basisstation Version 0.1</t>
+  </si>
+  <si>
+    <t>2018-03-24 1.png</t>
+  </si>
+  <si>
+    <t>Kommunikation Basis-drohne-arduino Schreibtischaufbau</t>
+  </si>
+  <si>
+    <t>2018-03-24 2.png</t>
+  </si>
+  <si>
+    <t>Ausgabe Arduino und Raspberry einige Fehler aber wenigstens eine Ausgabe</t>
+  </si>
+  <si>
+    <t>2018-03-24 3.png</t>
+  </si>
+  <si>
+    <t>Ausgabe Basisstation</t>
   </si>
 </sst>
 </file>
@@ -639,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,6 +1210,39 @@
         <v>98</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
   <si>
     <t>Datum</t>
   </si>
@@ -339,6 +339,75 @@
   </si>
   <si>
     <t>Ausgabe Basisstation</t>
+  </si>
+  <si>
+    <t>2018-03-28 1.JPG</t>
+  </si>
+  <si>
+    <t>Drohnentreffen intensives Arbeiten</t>
+  </si>
+  <si>
+    <t>2018-03-28 2.JPG</t>
+  </si>
+  <si>
+    <t>Rotoren Drehen sich. Alter Raspberry</t>
+  </si>
+  <si>
+    <t>2018-03-28 3.MOV</t>
+  </si>
+  <si>
+    <t>2018-03-28 4:JPG</t>
+  </si>
+  <si>
+    <t>Close UP Drohne/ Zero W</t>
+  </si>
+  <si>
+    <t>2018-03-28 5.JPG</t>
+  </si>
+  <si>
+    <t>2018-03-28 6.JPG</t>
+  </si>
+  <si>
+    <t>2018-03-28 7.jpg</t>
+  </si>
+  <si>
+    <t>Fehlermeldung Raspberry PI Zero W funktioniert nicht mit wiringPi</t>
+  </si>
+  <si>
+    <t>2018-03-28 8.AVI</t>
+  </si>
+  <si>
+    <t>Drohne/ PI 3 Rotoren Drehen sich</t>
+  </si>
+  <si>
+    <t>Close UP Drohne/ PI 3</t>
+  </si>
+  <si>
+    <t>2018-03-29 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-03-29 2.AVI</t>
+  </si>
+  <si>
+    <t>Schwebeflug Drohne</t>
+  </si>
+  <si>
+    <t>2018-03-29 3.AVI</t>
+  </si>
+  <si>
+    <t>Crash Drohne (Vertauschte Variablen)</t>
+  </si>
+  <si>
+    <t>2018-03-29 5-1.JPG</t>
+  </si>
+  <si>
+    <t>Close UP Drone/ Zero W</t>
+  </si>
+  <si>
+    <t>2018-03-29 4.JPG</t>
+  </si>
+  <si>
+    <t>2018-03-29 5</t>
   </si>
 </sst>
 </file>
@@ -657,21 +726,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -693,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -704,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -715,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -726,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -737,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -748,7 +817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -759,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -770,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -781,7 +850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -792,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -803,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -814,7 +883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -825,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -836,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -847,7 +916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -858,7 +927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -869,7 +938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -880,7 +949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -891,7 +960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -902,7 +971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -913,7 +982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -924,7 +993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -935,7 +1004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -946,7 +1015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -957,7 +1026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -968,7 +1037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -979,7 +1048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -990,7 +1059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1001,7 +1070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1012,7 +1081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1023,7 +1092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1034,7 +1103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1045,7 +1114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1056,7 +1125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1067,7 +1136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1078,7 +1147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1089,7 +1158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1100,7 +1169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1111,7 +1180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1122,7 +1191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1133,7 +1202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1144,7 +1213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1155,7 +1224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1166,7 +1235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1177,7 +1246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1188,7 +1257,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1199,7 +1268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1210,7 +1279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1221,7 +1290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1232,7 +1301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1241,6 +1310,160 @@
       </c>
       <c r="C52" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Datum</t>
   </si>
@@ -408,12 +403,18 @@
   </si>
   <si>
     <t>2018-03-29 5</t>
+  </si>
+  <si>
+    <t>2018-04-03.JPG</t>
+  </si>
+  <si>
+    <t>GUI mit Beispielbild + Implementierung der Werte (teilweise verbugged)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,21 +727,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -762,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -773,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -784,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -795,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -806,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -817,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -828,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -839,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -850,7 +851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -861,7 +862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -872,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -883,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -894,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -905,7 +906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -916,7 +917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -927,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -938,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -949,7 +950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -960,7 +961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -971,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -982,7 +983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -993,7 +994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1464,6 +1465,17 @@
       </c>
       <c r="C66" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
   <si>
     <t>Datum</t>
   </si>
@@ -409,12 +414,36 @@
   </si>
   <si>
     <t>GUI mit Beispielbild + Implementierung der Werte (teilweise verbugged)</t>
+  </si>
+  <si>
+    <t>2018-04-04 1.pdf</t>
+  </si>
+  <si>
+    <t>Weiterentwicklung des Prototypen -&gt; Neuer Schaltplan</t>
+  </si>
+  <si>
+    <t>2018-04-04 2.jpg</t>
+  </si>
+  <si>
+    <t>Start zu löten</t>
+  </si>
+  <si>
+    <t>10h Löten später, Revision 2 der Schaltung ist fertiggestellt. Gehäuse muss noch erneuert werden</t>
+  </si>
+  <si>
+    <t>2018-04-05 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-04-05 2.JPG</t>
+  </si>
+  <si>
+    <t>Anderer Winkel sonst s.o.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,21 +756,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -763,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -774,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -785,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -796,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -807,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -818,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -829,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -840,7 +869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -851,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -862,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -873,7 +902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -884,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -895,7 +924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -906,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -917,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -928,7 +957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -939,7 +968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -950,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -961,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -972,7 +1001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -983,7 +1012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -994,7 +1023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1005,7 +1034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1016,7 +1045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1027,7 +1056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1038,7 +1067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1049,7 +1078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1060,7 +1089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1071,7 +1100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1082,7 +1111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1093,7 +1122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1104,7 +1133,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1115,7 +1144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1126,7 +1155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1137,7 +1166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1148,7 +1177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1159,7 +1188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1170,7 +1199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1181,7 +1210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1192,7 +1221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1203,7 +1232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1214,7 +1243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1225,7 +1254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1236,7 +1265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1247,7 +1276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1258,7 +1287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1269,7 +1298,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1280,7 +1309,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1291,7 +1320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1302,7 +1331,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1313,7 +1342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1324,7 +1353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1335,7 +1364,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1346,7 +1375,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1357,7 +1386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1379,7 +1408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1390,7 +1419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1401,7 +1430,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1412,7 +1441,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1423,7 +1452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1434,7 +1463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1445,7 +1474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1456,7 +1485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1467,7 +1496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1476,6 +1505,50 @@
       </c>
       <c r="C67" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43194</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43194</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>Datum</t>
   </si>
@@ -438,12 +433,18 @@
   </si>
   <si>
     <t>Anderer Winkel sonst s.o.</t>
+  </si>
+  <si>
+    <t>2018-04-06.JPG</t>
+  </si>
+  <si>
+    <t>GUI-Platzhalter Fertiggestellt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,21 +757,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -792,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -803,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -814,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -825,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -836,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -847,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -858,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -869,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -880,7 +881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -891,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -902,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -913,7 +914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -924,7 +925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -935,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -946,7 +947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -957,7 +958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -968,7 +969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -979,7 +980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -990,7 +991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1549,6 +1550,17 @@
       </c>
       <c r="C71" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43196</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
   <si>
     <t>Datum</t>
   </si>
@@ -439,12 +444,18 @@
   </si>
   <si>
     <t>GUI-Platzhalter Fertiggestellt</t>
+  </si>
+  <si>
+    <t>2018-04-07.jpg</t>
+  </si>
+  <si>
+    <t>Basisstation Antenne wird konfiguriert. Endlich wird der Register richtig gelesen und geschrieben!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,6 +1574,17 @@
         <v>139</v>
       </c>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
   <si>
     <t>Datum</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>Basisstation Antenne wird konfiguriert. Endlich wird der Register richtig gelesen und geschrieben!</t>
+  </si>
+  <si>
+    <t>2018-04-09.jpg</t>
+  </si>
+  <si>
+    <t>Pressefoto</t>
+  </si>
+  <si>
+    <t>2018-04-13.jpg</t>
+  </si>
+  <si>
+    <t>Basisstation weiterentwickelt, probleme mit Arduino -&gt; Raspberry pi dazwischen</t>
   </si>
 </sst>
 </file>
@@ -768,21 +780,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -804,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -815,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -826,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -837,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -848,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -859,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -870,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -881,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -892,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -903,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -914,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -925,7 +937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -936,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -947,7 +959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -958,7 +970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -969,7 +981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -980,7 +992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1123,7 +1135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1288,7 +1300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1321,7 +1333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1583,6 +1595,28 @@
       </c>
       <c r="C73" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43199</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
   <si>
     <t>Datum</t>
   </si>
@@ -462,6 +462,36 @@
   </si>
   <si>
     <t>Basisstation weiterentwickelt, probleme mit Arduino -&gt; Raspberry pi dazwischen</t>
+  </si>
+  <si>
+    <t>2018-04-21 1.PNG</t>
+  </si>
+  <si>
+    <t>Versuche über Senden und empfangen über RF</t>
+  </si>
+  <si>
+    <t>2018-04-21 2.PNG</t>
+  </si>
+  <si>
+    <t>ERFOLG! Die zahlen 0-32 werden erfolgreich übertragen</t>
+  </si>
+  <si>
+    <t>2018-04-21 3.JPG</t>
+  </si>
+  <si>
+    <t>Testsetup im Garten</t>
+  </si>
+  <si>
+    <t>2018-04-21 4.JPG</t>
+  </si>
+  <si>
+    <t>Testsetup im Garten andere Perspektive</t>
+  </si>
+  <si>
+    <t>2018-04-21 5.JPG</t>
+  </si>
+  <si>
+    <t>Übertragung über Antennen. Reichweite problematisch</t>
   </si>
 </sst>
 </file>
@@ -780,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,6 +1649,61 @@
         <v>145</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>Datum</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>Übertragung über Antennen. Reichweite problematisch</t>
+  </si>
+  <si>
+    <t>2018-04-21 6.pdf</t>
+  </si>
+  <si>
+    <t>23:00 Kontrollschaltung für Basis fertiggestellt. Unterstützung für Bildschirm und Joysticks eingeplant</t>
   </si>
 </sst>
 </file>
@@ -810,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,6 +1710,17 @@
         <v>155</v>
       </c>
     </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
   <si>
     <t>Datum</t>
   </si>
@@ -498,6 +498,21 @@
   </si>
   <si>
     <t>23:00 Kontrollschaltung für Basis fertiggestellt. Unterstützung für Bildschirm und Joysticks eingeplant</t>
+  </si>
+  <si>
+    <t>2018-04-22 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-04-22 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-04-22 3.JPG</t>
+  </si>
+  <si>
+    <t>Perspektive</t>
+  </si>
+  <si>
+    <t>Vom Prototypen zur Hardware, das "Lieblingswerkzeug" kommt wieder zum Einsatz. Es wurde Platz für Joysticks und einen Touchscreen gelassen</t>
   </si>
 </sst>
 </file>
@@ -816,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,6 +1736,39 @@
         <v>157</v>
       </c>
     </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43212</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43212</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43212</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
   <si>
     <t>Datum</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>Vom Prototypen zur Hardware, das "Lieblingswerkzeug" kommt wieder zum Einsatz. Es wurde Platz für Joysticks und einen Touchscreen gelassen</t>
+  </si>
+  <si>
+    <t>2018-03-06.pdf</t>
+  </si>
+  <si>
+    <t>Später hinzugefügt… Softwaremindmap</t>
   </si>
 </sst>
 </file>
@@ -831,21 +837,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -867,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -878,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -889,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -900,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -911,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -922,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -933,7 +939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -944,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -955,7 +961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -966,7 +972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -977,7 +983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -988,7 +994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -1767,6 +1773,17 @@
       </c>
       <c r="C84" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
   <si>
     <t>Datum</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>Später hinzugefügt… Softwaremindmap</t>
+  </si>
+  <si>
+    <t>2018-04-25.JPG</t>
+  </si>
+  <si>
+    <t>Wir haben es in die Zeitung geschafft!</t>
   </si>
 </sst>
 </file>
@@ -837,21 +843,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -873,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -884,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -895,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -906,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -917,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -928,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -939,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -950,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -961,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -972,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -983,7 +989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -1784,6 +1790,17 @@
       </c>
       <c r="C85" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="169">
   <si>
     <t>Datum</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>Wir haben es in die Zeitung geschafft!</t>
+  </si>
+  <si>
+    <t>2018-04-28.PNG</t>
+  </si>
+  <si>
+    <t>Nach 7-8h rumprobieren, ENDLICH kommunikation zwischen PC und Drohne (Raspberry) muss ja noch zum nächsten Arduino</t>
   </si>
 </sst>
 </file>
@@ -843,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,6 +1809,17 @@
         <v>166</v>
       </c>
     </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43218</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>Datum</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>Nach 7-8h rumprobieren, ENDLICH kommunikation zwischen PC und Drohne (Raspberry) muss ja noch zum nächsten Arduino</t>
+  </si>
+  <si>
+    <t>Ein Massiver und ein Leichter Ramen. Das Testen kann beginnen!</t>
+  </si>
+  <si>
+    <t>2018-04-29 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-04-29 2.AVI</t>
+  </si>
+  <si>
+    <t>Die Kommunikation hin und zurück läuft! Drücken auf Start -&gt; Biep</t>
   </si>
 </sst>
 </file>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,6 +1832,28 @@
         <v>168</v>
       </c>
     </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>Datum</t>
   </si>
@@ -543,6 +543,15 @@
   </si>
   <si>
     <t>Die Kommunikation hin und zurück läuft! Drücken auf Start -&gt; Biep</t>
+  </si>
+  <si>
+    <t>2018-04-30 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-04.30 2.JPG</t>
+  </si>
+  <si>
+    <t>Die Drohne ist wieder beisammen. Bild vor großem Programmiertag. Die Motoren sind alle angelötet. Eine Reporteruin war in der Schule, und hat uns interviewt</t>
   </si>
 </sst>
 </file>
@@ -861,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,6 +1863,28 @@
         <v>172</v>
       </c>
     </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="187">
   <si>
     <t>Datum</t>
   </si>
@@ -552,6 +552,39 @@
   </si>
   <si>
     <t>Die Drohne ist wieder beisammen. Bild vor großem Programmiertag. Die Motoren sind alle angelötet. Eine Reporteruin war in der Schule, und hat uns interviewt</t>
+  </si>
+  <si>
+    <t>2018-05-01 1.JPG</t>
+  </si>
+  <si>
+    <t>Drohne Debug-Setting</t>
+  </si>
+  <si>
+    <t>Startplattform für die Drohne</t>
+  </si>
+  <si>
+    <t>Erster Motorstart der neuen Drohne</t>
+  </si>
+  <si>
+    <t>Gleiches Spiel. Ein Motor beibt stehen</t>
+  </si>
+  <si>
+    <t>2018-05-01 6.AVI</t>
+  </si>
+  <si>
+    <t>Es ist Bestätigt. Ein funktionierender Motor bleibt mit dem defekten ESC stehen. Ernüchterung! Heute schon wieder Programmiertag</t>
+  </si>
+  <si>
+    <t>2018-05-01 5.AVI</t>
+  </si>
+  <si>
+    <t>2018-05-01 4.AVI</t>
+  </si>
+  <si>
+    <t>2018-05-01 3.JPG</t>
+  </si>
+  <si>
+    <t>2018-05-01 2.JPG</t>
   </si>
 </sst>
 </file>
@@ -870,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,6 +1918,72 @@
         <v>161</v>
       </c>
     </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
   <si>
     <t>Datum</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>2018-05-01 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-05-01 7.jpg</t>
+  </si>
+  <si>
+    <t>Die Kommunikation von der Basis zum Arduino der Drohne (letztes programmiertes Glied der Kette vor der Hardware) funktioniert</t>
   </si>
 </sst>
 </file>
@@ -903,21 +909,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -939,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -950,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -961,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -972,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -983,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -1982,6 +1988,17 @@
       </c>
       <c r="C97" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
   <si>
     <t>Datum</t>
   </si>
@@ -591,6 +591,24 @@
   </si>
   <si>
     <t>Die Kommunikation von der Basis zum Arduino der Drohne (letztes programmiertes Glied der Kette vor der Hardware) funktioniert</t>
+  </si>
+  <si>
+    <t>Debuggen von diesen Großen konstrukten mit allen einzelteilen. Nur keine Panik!</t>
+  </si>
+  <si>
+    <t>2018-05-01 8.jpg</t>
+  </si>
+  <si>
+    <t>2018-05-01 9.jpg</t>
+  </si>
+  <si>
+    <t>Wenn mich die Hardware verlässt, kann die Zeit wenigstens für die Software verwendet werden. Es gibt jetzt eine stabile, relativ schnelle und zuverlässige zwei-Wege Kommunikation zwischen Basis und Arduino (Drohne)</t>
+  </si>
+  <si>
+    <t>2018-05-01 10.jpg</t>
+  </si>
+  <si>
+    <t>Die neuen ESCs sind Bestellt und garantiert bis Freitag angekommen und einsatzbereit</t>
   </si>
 </sst>
 </file>
@@ -909,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,6 +2019,39 @@
         <v>188</v>
       </c>
     </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B100" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="213">
   <si>
     <t>Datum</t>
   </si>
@@ -609,6 +609,60 @@
   </si>
   <si>
     <t>Die neuen ESCs sind Bestellt und garantiert bis Freitag angekommen und einsatzbereit</t>
+  </si>
+  <si>
+    <t>2018-05-04 1.JPG</t>
+  </si>
+  <si>
+    <t>Die ESCs sind angekommen. Der Neue ist etwas größer, kam aber schneller und ist auch für eventuelle stärkere Motoren geeignet</t>
+  </si>
+  <si>
+    <t>2018-05-04 2.JPG</t>
+  </si>
+  <si>
+    <t>Die Teststation ist aufgebaut. Die ersten Flugversuche können gestartet werden</t>
+  </si>
+  <si>
+    <t>2018-05-04 3.JPG</t>
+  </si>
+  <si>
+    <t>Die Teststation von Oben</t>
+  </si>
+  <si>
+    <t>2018-05-04 4.AVI</t>
+  </si>
+  <si>
+    <t>Das erste mal drehen sich die Motoren mit en neuen Platinen, ESCs und Programmen. Auf Anhieb wohl gemerkt !!</t>
+  </si>
+  <si>
+    <t>2018-05-04 5.AVI</t>
+  </si>
+  <si>
+    <t>Der erste Flug aus Sicht der Steuerung. Ausgabe der Drohne, des Arduinos und das GUI</t>
+  </si>
+  <si>
+    <t>2018-05-04 6.AVI</t>
+  </si>
+  <si>
+    <t>Zögerliches Anheben der Rotoren</t>
+  </si>
+  <si>
+    <t>CRASH! Etliche Fehlversuche später und lösen einiger Verbindungsprobleme resultierte dan in diesem Test. Erwartungsgemäß verhielt sich die nicht-kalibirerte Drohne seltsam und zerstörte sich selbst. Wenigstens sind die Motoren jetzt sicher stark genug</t>
+  </si>
+  <si>
+    <t>2018-05-04 7.AVI</t>
+  </si>
+  <si>
+    <t>2018-05-04 8.mp4</t>
+  </si>
+  <si>
+    <t>Der Crash aus sicht des Basiscomputers mit anfänglichen Startschwierigkeiten und meinen Erklärenden Selbstgesprächen (was es sein soll, weiß ich selbst nicht)</t>
+  </si>
+  <si>
+    <t>2018-05-04 9.avi</t>
+  </si>
+  <si>
+    <t>Wir sind jetzt auf YouTube. Der erste Clip wurde zur Demonstration zusammengeschnitten und hochgeladen.</t>
   </si>
 </sst>
 </file>
@@ -927,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,6 +2106,105 @@
         <v>194</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
   <si>
     <t>Datum</t>
   </si>
@@ -663,6 +663,12 @@
   </si>
   <si>
     <t>Wir sind jetzt auf YouTube. Der erste Clip wurde zur Demonstration zusammengeschnitten und hochgeladen.</t>
+  </si>
+  <si>
+    <t>2018-05-05.jpg</t>
+  </si>
+  <si>
+    <t>Das Programm braucht zu lange für berechnungen. Optimierungen werden benötigt!</t>
   </si>
 </sst>
 </file>
@@ -981,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,6 +2211,17 @@
         <v>212</v>
       </c>
     </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="219">
   <si>
     <t>Datum</t>
   </si>
@@ -669,6 +669,18 @@
   </si>
   <si>
     <t>Das Programm braucht zu lange für berechnungen. Optimierungen werden benötigt!</t>
+  </si>
+  <si>
+    <t>2018-05-06 1.jpg</t>
+  </si>
+  <si>
+    <t>Die Optimierungen sind vorerst abgeschlossen. Eine Berechnungsdauer von ca. 6ms Konnte erzielt werden. Zwar keiner Erstrebten 4ms abeer immerhin besser als 125ms</t>
+  </si>
+  <si>
+    <t>2018-05-06 2.pdf</t>
+  </si>
+  <si>
+    <t>Die Optimierungen bedurften auch einigen Umstrukturierungen auf der Platine. Weshalb die 5. Revision der Kontrollschaltung gemalt wurde</t>
   </si>
 </sst>
 </file>
@@ -987,21 +999,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1056,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1166,7 +1178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1287,7 +1299,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1573,7 +1585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1584,7 +1596,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1650,7 +1662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1815,7 +1827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -1914,7 +1926,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2002,7 +2014,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2024,7 +2036,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2035,7 +2047,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2145,7 +2157,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2220,6 +2232,28 @@
       </c>
       <c r="C111" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="231">
   <si>
     <t>Datum</t>
   </si>
@@ -681,6 +681,42 @@
   </si>
   <si>
     <t>Die Optimierungen bedurften auch einigen Umstrukturierungen auf der Platine. Weshalb die 5. Revision der Kontrollschaltung gemalt wurde</t>
+  </si>
+  <si>
+    <t>https://youtu.be/M8i7o0ufukU</t>
+  </si>
+  <si>
+    <t>Erklärvideo für Bumenerkennung</t>
+  </si>
+  <si>
+    <t>2018-05-08 1.avi</t>
+  </si>
+  <si>
+    <t>Motorenstottern</t>
+  </si>
+  <si>
+    <t>2018-05-08 2.avi</t>
+  </si>
+  <si>
+    <t>Crash, Motor fällt ab, Rotor fällt ab</t>
+  </si>
+  <si>
+    <t>2018-05-08 3.avi</t>
+  </si>
+  <si>
+    <t>Motoren viel Sanfter, Übersteuerung des VL Motors</t>
+  </si>
+  <si>
+    <t>2018-05-08 4.avi</t>
+  </si>
+  <si>
+    <t>2018.-05-08 5.avi</t>
+  </si>
+  <si>
+    <t>Ruhigerer Flug, Motor VR immernoch ausgefallen!</t>
+  </si>
+  <si>
+    <t>Fehlstart; Dann einigermaßen normales Verhalten Motoren, Einigermaßen normale Lagenkontrolle, nur ein Motor hat noch eine unstabile Verbindung. VERLORENGEGANGEN nr 5 ist ein Ausschnitt</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,8 +2292,74 @@
         <v>218</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B116" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B119" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="261">
   <si>
     <t>Datum</t>
   </si>
@@ -717,6 +717,96 @@
   </si>
   <si>
     <t>Fehlstart; Dann einigermaßen normales Verhalten Motoren, Einigermaßen normale Lagenkontrolle, nur ein Motor hat noch eine unstabile Verbindung. VERLORENGEGANGEN nr 5 ist ein Ausschnitt</t>
+  </si>
+  <si>
+    <t>2018-05-18.JPG</t>
+  </si>
+  <si>
+    <t>Wir sind wieder in der Zeitung. Hoffentlich fallen dieses mal ein paar Spendena b</t>
+  </si>
+  <si>
+    <t>2018-05-26 1.jpg</t>
+  </si>
+  <si>
+    <t>Zurück vom Urlaub. Die Ernüchterung über unseren finanziellen Standpunkt könnte nicht größer sein</t>
+  </si>
+  <si>
+    <t>2018-05-26 2.AVI</t>
+  </si>
+  <si>
+    <t>Einige Kommunikationsfehler zwischen Pi und Arduino wurden beseitigt</t>
+  </si>
+  <si>
+    <t>2018-05-26 3.JPG</t>
+  </si>
+  <si>
+    <t>Die Lötverbindungen zwischen den isolierten Spulendrähten und dem ESC sind wieder wackelig. Einsatz für den geliebten Lötkolben</t>
+  </si>
+  <si>
+    <t>2018-05-26 4.AVI</t>
+  </si>
+  <si>
+    <t>neuer Startversuch. Ein Motor (links im Bild) fällt nach kurzer Zeit immer wieder aus</t>
+  </si>
+  <si>
+    <t>2018-05-26 5.AVI</t>
+  </si>
+  <si>
+    <t>Dieses mal dauert es länger. Ich vermute immernoch eine instabile Verbindung</t>
+  </si>
+  <si>
+    <t>2018-05-26 6.AVI</t>
+  </si>
+  <si>
+    <t>Die Lagensteuerung reagiert richtig und gleicht meine künslich herbeigeführten drehungen aus</t>
+  </si>
+  <si>
+    <t>2018-05-26 7.jpg</t>
+  </si>
+  <si>
+    <t>Das gestörte Verhalten wird von der Software herbeigeführt. Der Esc für diesen Motor wird falsch angesteuert!</t>
+  </si>
+  <si>
+    <t>2018-05-26 8.jpg</t>
+  </si>
+  <si>
+    <t>Die Geschwindigkeit des Motors steigt (mehr oder weniger) kontinuierlich. Der Grund muss nich gefunden werden. Alles in allem ein guter "Start" in die Woche!</t>
+  </si>
+  <si>
+    <t>2018-05-27 1.AVI</t>
+  </si>
+  <si>
+    <t>Ausgangssituation. Alle Motoren drehen sich. Einer spielt verrückt. Das Problem des ausfallens ist gelöst. Beim Kalibrieren des Sensors ist ein Fehler unterlaufen</t>
+  </si>
+  <si>
+    <t>2018-05-27 2.AVI</t>
+  </si>
+  <si>
+    <t>Die Motoren üben einige Kraft auf den Rahmen aus. Ein Motor fällt bei höheren drehzahlen immer wieder aus</t>
+  </si>
+  <si>
+    <t>2018-05-27 3.JPG</t>
+  </si>
+  <si>
+    <t>Beim Löten an den Verbindungen ist ein Rotor zerstört worden</t>
+  </si>
+  <si>
+    <t>2018-05-27 4.AVI</t>
+  </si>
+  <si>
+    <t>Ein Kaputter ESC und eine Fehlerhafte Signalverbindung konnten ausgeschlossen werden. Die Motoren stottern noch seltsam!</t>
+  </si>
+  <si>
+    <t>Das stottern konnte behoben werden. Die Fehler beim Ansteuern kommen wahrscheinlich von unzureichenden Verbindungen zwischen den ESCs und Motoren</t>
+  </si>
+  <si>
+    <t>2018-05-27 5.AVI</t>
+  </si>
+  <si>
+    <t>2018-05-27 6.JPG</t>
+  </si>
+  <si>
+    <t>Die Motorkabel werden jetzt vom Lack befreit. Hoffentlich arbeiten die Motoren jetzt zuverlässiger. Morgen kann wohl die Lagensteuerung kalibriert werden</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,6 +2448,171 @@
         <v>229</v>
       </c>
     </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B121" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B122" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B127" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B128" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B129" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B132" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B133" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B134" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="265">
   <si>
     <t>Datum</t>
   </si>
@@ -807,6 +807,18 @@
   </si>
   <si>
     <t>Die Motorkabel werden jetzt vom Lack befreit. Hoffentlich arbeiten die Motoren jetzt zuverlässiger. Morgen kann wohl die Lagensteuerung kalibriert werden</t>
+  </si>
+  <si>
+    <t>2018-05-29 1.AVI</t>
+  </si>
+  <si>
+    <t>Die neuen Kontakte scheinen wirkung zu zeigen. Nur ein Motor fängt immer wieder das stottern an. Es wird immer schlimmer. Die Lötstellen könnten nicht mehr Kontakt haben. Höchstwahrscheinlich gab es einen Kabelbruch im Motor</t>
+  </si>
+  <si>
+    <t>2018-05-29 2.AVI</t>
+  </si>
+  <si>
+    <t>Der Motor dreht sich noch etwas besser. Die Lagensteuerung ist spürbar und übernimmt schon teilweise Kontrolle. Wenn nur dieser Motor laufen würde….</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2613,6 +2625,28 @@
         <v>260</v>
       </c>
     </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B135" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B136" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="267">
   <si>
     <t>Datum</t>
   </si>
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t>Der Motor dreht sich noch etwas besser. Die Lagensteuerung ist spürbar und übernimmt schon teilweise Kontrolle. Wenn nur dieser Motor laufen würde….</t>
+  </si>
+  <si>
+    <t>2018-05-30.jpg</t>
+  </si>
+  <si>
+    <t>Der Höhensensor wird jetzt richtig vom RasPi ausgelesen! Gott sei Dank gab es eine python Bibiliothek zum portieren</t>
   </si>
 </sst>
 </file>
@@ -1137,21 +1143,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1250,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2645,6 +2651,17 @@
       </c>
       <c r="C136" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="269">
   <si>
     <t>Datum</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>Der Höhensensor wird jetzt richtig vom RasPi ausgelesen! Gott sei Dank gab es eine python Bibiliothek zum portieren</t>
+  </si>
+  <si>
+    <t>2018-06-04.jpg</t>
+  </si>
+  <si>
+    <t>Die Artikel sind auf dem Weg. Man beachte den Namen des Transportdienstleisters. Dieses Bild steht stellvertretend für alle Bestellungen</t>
   </si>
 </sst>
 </file>
@@ -1143,21 +1149,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1762,7 +1768,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2312,7 +2318,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2433,7 +2439,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2662,6 +2668,17 @@
       </c>
       <c r="C137" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B138" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="273">
   <si>
     <t>Datum</t>
   </si>
@@ -831,6 +831,18 @@
   </si>
   <si>
     <t>Die Artikel sind auf dem Weg. Man beachte den Namen des Transportdienstleisters. Dieses Bild steht stellvertretend für alle Bestellungen</t>
+  </si>
+  <si>
+    <t>2018-06-07 1.jpg</t>
+  </si>
+  <si>
+    <t>2018-06-07 2.jpg</t>
+  </si>
+  <si>
+    <t>Die Logsitikdienstleister konnten ihre Versprechen leider nicht halten…. Dur c++ konnte noch eine Performanceverbesserung in der Arduino Rpi kommunikation erreicht werden (2,1ms -&gt; 0,8ms)</t>
+  </si>
+  <si>
+    <t>Fotografiert, weil es einfach schön aussieht ;)</t>
   </si>
 </sst>
 </file>
@@ -1149,21 +1161,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1350,7 +1362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1361,7 +1373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1471,7 +1483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1504,7 +1516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1603,7 +1615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1680,7 +1692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1746,7 +1758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1768,7 +1780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1823,7 +1835,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1933,7 +1945,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1955,7 +1967,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2010,7 +2022,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2065,7 +2077,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2307,7 +2319,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2461,7 +2473,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2679,6 +2691,28 @@
       </c>
       <c r="C138" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B140" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="279">
   <si>
     <t>Datum</t>
   </si>
@@ -843,6 +843,24 @@
   </si>
   <si>
     <t>Fotografiert, weil es einfach schön aussieht ;)</t>
+  </si>
+  <si>
+    <t>2018-06-13 1.JPG</t>
+  </si>
+  <si>
+    <t>Endlich ist der Rahmen gekommen. Die Drohne hat jetzt den neuen Rahmen. Das Stromverteilungsboard wurde verkleinert und nach unten gelegt. Close Up Shot</t>
+  </si>
+  <si>
+    <t>2018-06-13 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-13 3.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-13 4.JPG</t>
+  </si>
+  <si>
+    <t>Close Up</t>
   </si>
 </sst>
 </file>
@@ -1161,21 +1179,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1219,7 +1237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1263,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1274,7 +1292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1307,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1318,7 +1336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1340,7 +1358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1373,7 +1391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1439,7 +1457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1461,7 +1479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1472,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1494,7 +1512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1516,7 +1534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1527,7 +1545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1560,7 +1578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1626,7 +1644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1648,7 +1666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1670,7 +1688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1681,7 +1699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1725,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1736,7 +1754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1758,7 +1776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1780,7 +1798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1802,7 +1820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1813,7 +1831,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1824,7 +1842,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1835,7 +1853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1857,7 +1875,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1923,7 +1941,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1934,7 +1952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1945,7 +1963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1956,7 +1974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1967,7 +1985,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1978,7 +1996,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2000,7 +2018,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2044,7 +2062,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2055,7 +2073,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2066,7 +2084,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2077,7 +2095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2088,7 +2106,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2132,7 +2150,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2143,7 +2161,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2165,7 +2183,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2176,7 +2194,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2209,7 +2227,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2220,7 +2238,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2231,7 +2249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2242,7 +2260,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2264,7 +2282,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2275,7 +2293,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2308,7 +2326,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2319,7 +2337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2352,7 +2370,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2374,7 +2392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2385,7 +2403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2451,7 +2469,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2462,7 +2480,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2473,7 +2491,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2484,7 +2502,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2517,7 +2535,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2528,7 +2546,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2539,7 +2557,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2550,7 +2568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2572,7 +2590,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2583,7 +2601,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2605,7 +2623,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2616,7 +2634,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2660,7 +2678,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2682,7 +2700,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2704,7 +2722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2713,6 +2731,50 @@
       </c>
       <c r="C140" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B141" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B142" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B143" t="s">
+        <v>276</v>
+      </c>
+      <c r="C143" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B144" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="287">
   <si>
     <t>Datum</t>
   </si>
@@ -861,6 +861,30 @@
   </si>
   <si>
     <t>Close Up</t>
+  </si>
+  <si>
+    <t>Bugfixen der Java bilderkennung. Richtig bescheuerte Fehler von denen keiner Wissen kann. Ein java byte geht von -128 - 127</t>
+  </si>
+  <si>
+    <t>2018-06-14 2.jpg</t>
+  </si>
+  <si>
+    <t>ein c# byte geht con 0 - 255 Dankeschön, kann man sich denn da nicht einigen?</t>
+  </si>
+  <si>
+    <t>2018-06-14 3.jpg</t>
+  </si>
+  <si>
+    <t>Die Bilderkennung funktioniert jetzt komplett und dauert ca. 80ms</t>
+  </si>
+  <si>
+    <t>2018-06-14 4.png</t>
+  </si>
+  <si>
+    <t>Die Bilder, die java bearbeitet, können auch ausgegeben werden. Könnte später noch hilfreich sein</t>
+  </si>
+  <si>
+    <t>2018-06-14 1.jpg</t>
   </si>
 </sst>
 </file>
@@ -1179,21 +1203,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1215,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1226,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1248,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1259,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1270,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1292,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1303,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1314,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1325,7 +1349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1336,7 +1360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1347,7 +1371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1358,7 +1382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1380,7 +1404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1402,7 +1426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1413,7 +1437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1446,7 +1470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1457,7 +1481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1468,7 +1492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1501,7 +1525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1512,7 +1536,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1523,7 +1547,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1534,7 +1558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1556,7 +1580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1567,7 +1591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1578,7 +1602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1600,7 +1624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1611,7 +1635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1633,7 +1657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1655,7 +1679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1688,7 +1712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1699,7 +1723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1710,7 +1734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1732,7 +1756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1743,7 +1767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1754,7 +1778,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1776,7 +1800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1787,7 +1811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1809,7 +1833,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1831,7 +1855,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1842,7 +1866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1875,7 +1899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1897,7 +1921,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1919,7 +1943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1930,7 +1954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1941,7 +1965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1952,7 +1976,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1963,7 +1987,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1974,7 +1998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -1996,7 +2020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2007,7 +2031,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2051,7 +2075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2062,7 +2086,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2073,7 +2097,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2084,7 +2108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2095,7 +2119,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2106,7 +2130,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2117,7 +2141,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2128,7 +2152,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2139,7 +2163,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2150,7 +2174,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2161,7 +2185,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2172,7 +2196,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2183,7 +2207,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2194,7 +2218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2205,7 +2229,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2216,7 +2240,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2238,7 +2262,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2249,7 +2273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2260,7 +2284,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2271,7 +2295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2282,7 +2306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2293,7 +2317,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2304,7 +2328,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2315,7 +2339,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2348,7 +2372,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2359,7 +2383,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2370,7 +2394,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2381,7 +2405,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2392,7 +2416,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2414,7 +2438,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2425,7 +2449,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2436,7 +2460,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2447,7 +2471,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2458,7 +2482,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2469,7 +2493,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2491,7 +2515,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2502,7 +2526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2513,7 +2537,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2524,7 +2548,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2535,7 +2559,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2546,7 +2570,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2557,7 +2581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2568,7 +2592,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2579,7 +2603,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2601,7 +2625,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2612,7 +2636,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2623,7 +2647,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2645,7 +2669,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2656,7 +2680,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2667,7 +2691,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2678,7 +2702,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2689,7 +2713,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2700,7 +2724,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2711,7 +2735,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2733,7 +2757,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -2744,7 +2768,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -2755,7 +2779,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -2775,6 +2799,50 @@
       </c>
       <c r="C144" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B146" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B147" t="s">
+        <v>282</v>
+      </c>
+      <c r="C147" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="307">
   <si>
     <t>Datum</t>
   </si>
@@ -885,6 +885,66 @@
   </si>
   <si>
     <t>2018-06-14 1.jpg</t>
+  </si>
+  <si>
+    <t>Die Motoren sind gekommen. Der Tag ist gerettet (wie mans will) "nur" 9 Tage verspätung</t>
+  </si>
+  <si>
+    <t>2018-06-16 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-16 1.JPG</t>
+  </si>
+  <si>
+    <t>Die Neue Drohne</t>
+  </si>
+  <si>
+    <t>2018-06-16 3.JPG</t>
+  </si>
+  <si>
+    <t>Close Up neue Drohne (Ende des Tages)</t>
+  </si>
+  <si>
+    <t>2018-06-16 4.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-16 5.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-16 6.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-16 7.JPG</t>
+  </si>
+  <si>
+    <t>2018-06-16 8.AVI</t>
+  </si>
+  <si>
+    <t>Ausgangssituation, nur alte Motoren. Es drehen sich zwar die meisen (einer nicht), aber die fallen im laufe des Tages noch nacheinander aus</t>
+  </si>
+  <si>
+    <t>2018-06-16 9.AVI</t>
+  </si>
+  <si>
+    <t>Starkes Überkompensieren der Motoren. Eine Starttasse muss dran glauben. Ein Motor fällt aus</t>
+  </si>
+  <si>
+    <t>2018-06-16 10.AVI</t>
+  </si>
+  <si>
+    <t>Motoren halten sich einigermaßen Stabil. Die Stabiliserung in Links-Rechts drehung wurde erstmal außer kraft gesetzt. Ein Motor muss nochmal geprüft werden…</t>
+  </si>
+  <si>
+    <t>2018-06-16 11.PNG</t>
+  </si>
+  <si>
+    <t>Die Sensorwerte und Berechnungszeiten über eine Dauer. Zur datenerhebung wurde Der Arduino isoiert getestet, um keine Strom/ Spannungsschwankungen zu haben</t>
+  </si>
+  <si>
+    <t>2018-06-16 12.PNG</t>
+  </si>
+  <si>
+    <t>Die Sensorwerte und Berechnungszeiten über eine Dauer. Die Motoren liefen zum schluss auf halber Geschwindigkeit. Vibrationen und Strom/ Spannungsschwankungen oder Elektromagnetische störungen veranlassten das Gyroskop ungesund abweichende Werte zu produzieren</t>
   </si>
 </sst>
 </file>
@@ -920,9 +980,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1203,21 +1264,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1239,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1250,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1261,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1272,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1283,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1294,7 +1355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1305,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1316,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1327,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1338,7 +1399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1349,7 +1410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1360,7 +1421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1371,7 +1432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1382,7 +1443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1393,7 +1454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1404,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1415,7 +1476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1426,7 +1487,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1437,7 +1498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1448,7 +1509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1459,7 +1520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1470,7 +1531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1481,7 +1542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1492,7 +1553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1503,7 +1564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1514,7 +1575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1525,7 +1586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1536,7 +1597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1547,7 +1608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1558,7 +1619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1569,7 +1630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1580,7 +1641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1591,7 +1652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1602,7 +1663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1613,7 +1674,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1624,7 +1685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1635,7 +1696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1646,7 +1707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1657,7 +1718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1668,7 +1729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1679,7 +1740,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1690,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1701,7 +1762,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1712,7 +1773,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1723,7 +1784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1734,7 +1795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1745,7 +1806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1756,7 +1817,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1767,7 +1828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1778,7 +1839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1789,7 +1850,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1800,7 +1861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1811,7 +1872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1822,7 +1883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1833,7 +1894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1844,7 +1905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1855,7 +1916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1866,7 +1927,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1877,7 +1938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1888,7 +1949,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1899,7 +1960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1910,7 +1971,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -1921,7 +1982,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -1932,7 +1993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -1943,7 +2004,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -1954,7 +2015,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -1965,7 +2026,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -1976,7 +2037,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -1987,7 +2048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -1998,7 +2059,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2009,7 +2070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2020,7 +2081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2031,7 +2092,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2042,7 +2103,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2053,7 +2114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2064,7 +2125,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2075,7 +2136,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2086,7 +2147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2097,7 +2158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2108,7 +2169,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2119,7 +2180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2130,7 +2191,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2141,7 +2202,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2152,7 +2213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2163,7 +2224,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2174,7 +2235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2185,7 +2246,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2196,7 +2257,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2207,7 +2268,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2218,7 +2279,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2229,7 +2290,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2240,7 +2301,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2251,7 +2312,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2262,7 +2323,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2273,7 +2334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2284,7 +2345,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2295,7 +2356,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2306,7 +2367,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2317,7 +2378,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2328,7 +2389,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2339,7 +2400,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2350,7 +2411,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2361,7 +2422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2372,7 +2433,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2383,7 +2444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2394,7 +2455,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2405,7 +2466,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2416,7 +2477,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2427,7 +2488,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2438,7 +2499,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2449,7 +2510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2460,7 +2521,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2471,7 +2532,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2482,7 +2543,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2493,7 +2554,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2504,7 +2565,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2515,7 +2576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2526,7 +2587,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2537,7 +2598,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2548,7 +2609,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2559,7 +2620,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2570,7 +2631,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2581,7 +2642,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2592,7 +2653,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2603,7 +2664,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2614,7 +2675,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2625,7 +2686,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2636,7 +2697,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2647,7 +2708,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2658,7 +2719,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2669,7 +2730,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2680,7 +2741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2691,7 +2752,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2702,7 +2763,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2713,7 +2774,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2724,7 +2785,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2735,7 +2796,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2746,7 +2807,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2757,7 +2818,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -2768,7 +2829,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -2779,7 +2840,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -2790,7 +2851,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -2801,7 +2862,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -2812,7 +2873,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -2823,7 +2884,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -2834,7 +2895,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -2844,6 +2905,141 @@
       <c r="C148" t="s">
         <v>285</v>
       </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B149" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B150" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B151" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B153" t="s">
+        <v>294</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B154" t="s">
+        <v>295</v>
+      </c>
+      <c r="C154" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B155" t="s">
+        <v>296</v>
+      </c>
+      <c r="C155" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B156" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B158" t="s">
+        <v>301</v>
+      </c>
+      <c r="C158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B159" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B160" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="309">
   <si>
     <t>Datum</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>Die Sensorwerte und Berechnungszeiten über eine Dauer. Die Motoren liefen zum schluss auf halber Geschwindigkeit. Vibrationen und Strom/ Spannungsschwankungen oder Elektromagnetische störungen veranlassten das Gyroskop ungesund abweichende Werte zu produzieren</t>
+  </si>
+  <si>
+    <t>2018-06-19.AVI</t>
+  </si>
+  <si>
+    <t>Die Motoren drehen sich viel ruhiger. Die Drohne zieht gleichmäßig und übersteuert nicht mehr so stark. Ein Vorzeichenfehler wurde gefixt und die ESCs arbeiten jetzt in der gleichen Throttle-Range. Dummer Fehler!</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1273,7 @@
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3038,8 +3044,16 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B161" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="311">
   <si>
     <t>Datum</t>
   </si>
@@ -951,6 +951,12 @@
   </si>
   <si>
     <t>Die Motoren drehen sich viel ruhiger. Die Drohne zieht gleichmäßig und übersteuert nicht mehr so stark. Ein Vorzeichenfehler wurde gefixt und die ESCs arbeiten jetzt in der gleichen Throttle-Range. Dummer Fehler!</t>
+  </si>
+  <si>
+    <t>2018-06-21.AVI</t>
+  </si>
+  <si>
+    <t>Das Video Fasst die Probleme gut zusammen. Ich habe zwar noch ein paar kommunikationsfehlerbehebungssachen eingebaut, die Kommunikation funktioniert aber nicht immer gut! (Wenn das licht leuchtet, gab es eine Fehlübertragung (Throttle + Yaw 0). Im Test ohne Motoren ist das kein Problem. Wahrscheinlich ist unsere Stromverteilung schlecht!</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3055,6 +3061,17 @@
         <v>308</v>
       </c>
     </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B162" t="s">
+        <v>309</v>
+      </c>
+      <c r="C162" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="313">
   <si>
     <t>Datum</t>
   </si>
@@ -957,6 +957,12 @@
   </si>
   <si>
     <t>Das Video Fasst die Probleme gut zusammen. Ich habe zwar noch ein paar kommunikationsfehlerbehebungssachen eingebaut, die Kommunikation funktioniert aber nicht immer gut! (Wenn das licht leuchtet, gab es eine Fehlübertragung (Throttle + Yaw 0). Im Test ohne Motoren ist das kein Problem. Wahrscheinlich ist unsere Stromverteilung schlecht!</t>
+  </si>
+  <si>
+    <t>2018-06-22.PNG</t>
+  </si>
+  <si>
+    <t>Jetzt kann die Drohne auch unabhängig von meinem WLAN gestartet werden. Es ist unendlich kompliziert und benötigt einen anderen Laptop, aber mit etwas Glück ist es funktionstüchtig</t>
   </si>
 </sst>
 </file>
@@ -1276,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,6 +3078,17 @@
         <v>310</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B163" t="s">
+        <v>311</v>
+      </c>
+      <c r="C163" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="315">
   <si>
     <t>Datum</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>Jetzt kann die Drohne auch unabhängig von meinem WLAN gestartet werden. Es ist unendlich kompliziert und benötigt einen anderen Laptop, aber mit etwas Glück ist es funktionstüchtig</t>
+  </si>
+  <si>
+    <t>2018-06-23.JPG</t>
+  </si>
+  <si>
+    <t>Das Transportcase für die Drohne ist fertig. Ein bisschen Müll und der Poker Koffer. Das Ergebnis sieht echt Passabel aus!</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3089,6 +3095,17 @@
         <v>312</v>
       </c>
     </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B164" t="s">
+        <v>313</v>
+      </c>
+      <c r="C164" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="317">
   <si>
     <t>Datum</t>
   </si>
@@ -969,6 +969,12 @@
   </si>
   <si>
     <t>Das Transportcase für die Drohne ist fertig. Ein bisschen Müll und der Poker Koffer. Das Ergebnis sieht echt Passabel aus!</t>
+  </si>
+  <si>
+    <t>2018-07-01.JPG</t>
+  </si>
+  <si>
+    <t>Unsere GUI hat jetzt auch Controller Unterstützung!</t>
   </si>
 </sst>
 </file>
@@ -1288,21 +1294,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2457,7 +2463,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3104,6 +3110,17 @@
       </c>
       <c r="C164" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B165" t="s">
+        <v>315</v>
+      </c>
+      <c r="C165" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
   <si>
     <t>Datum</t>
   </si>
@@ -975,6 +975,18 @@
   </si>
   <si>
     <t>Unsere GUI hat jetzt auch Controller Unterstützung!</t>
+  </si>
+  <si>
+    <t>2018-07-13.JPG</t>
+  </si>
+  <si>
+    <t>Neue Teile sind Angekommen. Hier ein kleiner Größenvergleich über das Upgrade</t>
+  </si>
+  <si>
+    <t>2018-07-14.JPG</t>
+  </si>
+  <si>
+    <t>Neuer Rahmen ist gebaut</t>
   </si>
 </sst>
 </file>
@@ -1294,21 +1306,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1374,7 +1386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1396,7 +1408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1462,7 +1474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1946,7 +1958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2023,7 +2035,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2078,7 +2090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2111,7 +2123,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2265,7 +2277,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2276,7 +2288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2353,7 +2365,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2375,7 +2387,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2397,7 +2409,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2430,7 +2442,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2474,7 +2486,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2584,7 +2596,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2595,7 +2607,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2606,7 +2618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2628,7 +2640,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2650,7 +2662,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2705,7 +2717,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2716,7 +2728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2749,7 +2761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2760,7 +2772,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2815,7 +2827,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -2859,7 +2871,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -2903,7 +2915,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -2914,7 +2926,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -2936,7 +2948,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -2947,7 +2959,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3002,7 +3014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3035,7 +3047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3068,7 +3080,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3079,7 +3091,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3090,7 +3102,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3112,7 +3124,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3121,6 +3133,28 @@
       </c>
       <c r="C165" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>43294</v>
+      </c>
+      <c r="B166" t="s">
+        <v>317</v>
+      </c>
+      <c r="C166" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>43295</v>
+      </c>
+      <c r="B167" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="328">
   <si>
     <t>Datum</t>
   </si>
@@ -987,6 +987,27 @@
   </si>
   <si>
     <t>Neuer Rahmen ist gebaut</t>
+  </si>
+  <si>
+    <t>2018-07-15 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-15 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-15 3.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-15 4.AVI</t>
+  </si>
+  <si>
+    <t>Ein Motor der neuen Drohne wurde angeschlossen, der Controller ist auf den Rahmen gesetzt</t>
+  </si>
+  <si>
+    <t>Verkabelung Close Up</t>
+  </si>
+  <si>
+    <t>Großer Motor dreht sich das erste mal. Erster Versuch -&gt; Erfolg (das ich das mal mitbekomme). Motor dreht sich in die richtige Richtung (maximale Geschwindigkeit: 1100us)</t>
   </si>
 </sst>
 </file>
@@ -1306,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3157,6 +3178,50 @@
         <v>320</v>
       </c>
     </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>43296</v>
+      </c>
+      <c r="B168" t="s">
+        <v>321</v>
+      </c>
+      <c r="C168" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>43296</v>
+      </c>
+      <c r="B169" t="s">
+        <v>322</v>
+      </c>
+      <c r="C169" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>43296</v>
+      </c>
+      <c r="B170" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>43296</v>
+      </c>
+      <c r="B171" t="s">
+        <v>324</v>
+      </c>
+      <c r="C171" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="337">
   <si>
     <t>Datum</t>
   </si>
@@ -1008,6 +1008,33 @@
   </si>
   <si>
     <t>Großer Motor dreht sich das erste mal. Erster Versuch -&gt; Erfolg (das ich das mal mitbekomme). Motor dreht sich in die richtige Richtung (maximale Geschwindigkeit: 1100us)</t>
+  </si>
+  <si>
+    <t>Fertigstellen der Strom und Signalverbindungen für die restlichen Motoren</t>
+  </si>
+  <si>
+    <t>2018-07-16 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-16 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-17 1.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Biene ist inzwischen auch Bissig geworden. </t>
+  </si>
+  <si>
+    <t>2018-07-17 2.JPG</t>
+  </si>
+  <si>
+    <t>Das restliche Geld des fördervereins ist einfach Schmerzensgeld für mich &lt;3</t>
+  </si>
+  <si>
+    <t>2018-07-17 3.AVI</t>
+  </si>
+  <si>
+    <t>Die Drohne wird durch den Xbox Controller gesteuert und bewegt sich recht stabil. Alle Rotoren drehen sich!</t>
   </si>
 </sst>
 </file>
@@ -1327,21 +1354,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1363,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1374,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1385,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1396,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1418,7 +1445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1429,7 +1456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1440,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1451,7 +1478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1462,7 +1489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1484,7 +1511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1506,7 +1533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1517,7 +1544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1528,7 +1555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1539,7 +1566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1550,7 +1577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1561,7 +1588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1572,7 +1599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1583,7 +1610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1594,7 +1621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1616,7 +1643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1638,7 +1665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1649,7 +1676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1660,7 +1687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1671,7 +1698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1682,7 +1709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1693,7 +1720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1704,7 +1731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1715,7 +1742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1737,7 +1764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1748,7 +1775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1759,7 +1786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1781,7 +1808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1792,7 +1819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1803,7 +1830,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1825,7 +1852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1836,7 +1863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1847,7 +1874,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1858,7 +1885,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1869,7 +1896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1880,7 +1907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1891,7 +1918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1902,7 +1929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1924,7 +1951,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1935,7 +1962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1946,7 +1973,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1957,7 +1984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -1968,7 +1995,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -1979,7 +2006,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -1990,7 +2017,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2001,7 +2028,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2012,7 +2039,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2023,7 +2050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2034,7 +2061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2056,7 +2083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2067,7 +2094,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2078,7 +2105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2089,7 +2116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2100,7 +2127,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2111,7 +2138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2122,7 +2149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2133,7 +2160,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2144,7 +2171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2155,7 +2182,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2166,7 +2193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2177,7 +2204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2188,7 +2215,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2210,7 +2237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2221,7 +2248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2232,7 +2259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2243,7 +2270,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2254,7 +2281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2265,7 +2292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2276,7 +2303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2287,7 +2314,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2298,7 +2325,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2309,7 +2336,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2320,7 +2347,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2331,7 +2358,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2342,7 +2369,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2353,7 +2380,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2364,7 +2391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2386,7 +2413,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2397,7 +2424,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2408,7 +2435,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2419,7 +2446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2430,7 +2457,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2441,7 +2468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2452,7 +2479,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2463,7 +2490,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2474,7 +2501,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2496,7 +2523,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2507,7 +2534,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2518,7 +2545,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2529,7 +2556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2540,7 +2567,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2551,7 +2578,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2562,7 +2589,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2573,7 +2600,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2584,7 +2611,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2595,7 +2622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2606,7 +2633,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2617,7 +2644,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2628,7 +2655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2639,7 +2666,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2661,7 +2688,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2683,7 +2710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2694,7 +2721,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2705,7 +2732,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2716,7 +2743,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2727,7 +2754,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2738,7 +2765,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2749,7 +2776,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2760,7 +2787,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2771,7 +2798,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2782,7 +2809,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2793,7 +2820,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2804,7 +2831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2815,7 +2842,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2826,7 +2853,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2837,7 +2864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2859,7 +2886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2870,7 +2897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2881,7 +2908,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -2892,7 +2919,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -2903,7 +2930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -2914,7 +2941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -2925,7 +2952,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -2936,7 +2963,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -2947,7 +2974,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -2958,7 +2985,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -2969,7 +2996,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -2980,7 +3007,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -2991,7 +3018,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3002,7 +3029,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3013,7 +3040,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3024,7 +3051,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3035,7 +3062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3057,7 +3084,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3068,7 +3095,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3079,7 +3106,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3090,7 +3117,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3101,7 +3128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3123,7 +3150,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3134,7 +3161,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3145,7 +3172,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3156,7 +3183,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3167,7 +3194,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3178,7 +3205,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3189,7 +3216,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3211,7 +3238,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3220,6 +3247,61 @@
       </c>
       <c r="C171" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>43297</v>
+      </c>
+      <c r="B172" t="s">
+        <v>330</v>
+      </c>
+      <c r="C172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>43297</v>
+      </c>
+      <c r="B173" t="s">
+        <v>329</v>
+      </c>
+      <c r="C173" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>43298</v>
+      </c>
+      <c r="B174" t="s">
+        <v>331</v>
+      </c>
+      <c r="C174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>43298</v>
+      </c>
+      <c r="B175" t="s">
+        <v>333</v>
+      </c>
+      <c r="C175" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>43298</v>
+      </c>
+      <c r="B176" t="s">
+        <v>335</v>
+      </c>
+      <c r="C176" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="339">
   <si>
     <t>Datum</t>
   </si>
@@ -1035,6 +1035,12 @@
   </si>
   <si>
     <t>Die Drohne wird durch den Xbox Controller gesteuert und bewegt sich recht stabil. Alle Rotoren drehen sich!</t>
+  </si>
+  <si>
+    <t>2018-07-18.jpg</t>
+  </si>
+  <si>
+    <t>Die Übertragung der Daten zurück funktioniert wieder. Der Raspberry Pi ist wieder aus mäßig erklärbaren Gründen abgestürzt</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,6 +3310,17 @@
         <v>336</v>
       </c>
     </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>43299</v>
+      </c>
+      <c r="B177" t="s">
+        <v>337</v>
+      </c>
+      <c r="C177" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="357">
   <si>
     <t>Datum</t>
   </si>
@@ -1041,6 +1041,60 @@
   </si>
   <si>
     <t>Die Übertragung der Daten zurück funktioniert wieder. Der Raspberry Pi ist wieder aus mäßig erklärbaren Gründen abgestürzt</t>
+  </si>
+  <si>
+    <t>Start der Flugtests mit den neuen Motoren</t>
+  </si>
+  <si>
+    <t>2018-07-19 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-19 2.JPG</t>
+  </si>
+  <si>
+    <t>Die Arbeitsumgebung</t>
+  </si>
+  <si>
+    <t>Der Raspberry Pi stürzt auf der Drohne immer wieder ab</t>
+  </si>
+  <si>
+    <t>Den Grund findet man in der Spannungskurve (normale Kurve)</t>
+  </si>
+  <si>
+    <t>2018-07-19 4.JPG</t>
+  </si>
+  <si>
+    <t>2018-07-19 5.JPG</t>
+  </si>
+  <si>
+    <t>Während laufenden Motoren</t>
+  </si>
+  <si>
+    <t>2018-07-19 6.JPG</t>
+  </si>
+  <si>
+    <t>Ein Kondensator wird zum glätten der Spannung eingebaut. Die Kurve ist immernoch gruselig, der RPI stürzt aber nicht mehr ab</t>
+  </si>
+  <si>
+    <t>2018-07-19 7.JPG</t>
+  </si>
+  <si>
+    <t>Größere Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>2018-07-19 8.JPG</t>
+  </si>
+  <si>
+    <t>Beim Kalibrieren der ESCs passiert ein unfall. Die Drohne fliegt schnell 5m ins Blumenbeet. Das Kontrollboard ist Gott sei Dank abgefallen und es sind nur kleine Schäden entstanden</t>
+  </si>
+  <si>
+    <t>2018-07-19 3.MTS</t>
+  </si>
+  <si>
+    <t>2018-07-19 9.MTS</t>
+  </si>
+  <si>
+    <t>Die Drohne hat das zeug zum fliegen. Sogar bei sehr kleinen Geschwindigkeiten. Es ist wichtig vorsichtig zu sein. Mal wieder ein Crash!</t>
   </si>
 </sst>
 </file>
@@ -1360,21 +1414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1396,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1407,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1418,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1429,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1440,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1451,7 +1505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1462,7 +1516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1473,7 +1527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1484,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1495,7 +1549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1506,7 +1560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1517,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1528,7 +1582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1539,7 +1593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1550,7 +1604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1561,7 +1615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1572,7 +1626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1583,7 +1637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1594,7 +1648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1605,7 +1659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1616,7 +1670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1627,7 +1681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1638,7 +1692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1649,7 +1703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1660,7 +1714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1671,7 +1725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1682,7 +1736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1693,7 +1747,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1704,7 +1758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1715,7 +1769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1726,7 +1780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1737,7 +1791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1748,7 +1802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1759,7 +1813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1770,7 +1824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1781,7 +1835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1792,7 +1846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1803,7 +1857,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1814,7 +1868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1825,7 +1879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -1836,7 +1890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -1847,7 +1901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -1858,7 +1912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -1869,7 +1923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -1880,7 +1934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -1891,7 +1945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1902,7 +1956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -1913,7 +1967,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -1924,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -1935,7 +1989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -1946,7 +2000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -1957,7 +2011,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -1968,7 +2022,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -1979,7 +2033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -1990,7 +2044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -2001,7 +2055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -2012,7 +2066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -2023,7 +2077,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2034,7 +2088,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2045,7 +2099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2056,7 +2110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2067,7 +2121,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2078,7 +2132,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2089,7 +2143,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2100,7 +2154,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2111,7 +2165,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2122,7 +2176,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2133,7 +2187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2144,7 +2198,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2155,7 +2209,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2166,7 +2220,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2177,7 +2231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2188,7 +2242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2199,7 +2253,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2210,7 +2264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2221,7 +2275,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2232,7 +2286,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2243,7 +2297,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2254,7 +2308,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2265,7 +2319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2276,7 +2330,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2287,7 +2341,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2298,7 +2352,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2309,7 +2363,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2320,7 +2374,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2331,7 +2385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2342,7 +2396,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2353,7 +2407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2364,7 +2418,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2375,7 +2429,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2386,7 +2440,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2397,7 +2451,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2408,7 +2462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2419,7 +2473,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2430,7 +2484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2441,7 +2495,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2452,7 +2506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2463,7 +2517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2474,7 +2528,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2485,7 +2539,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2496,7 +2550,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2507,7 +2561,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2518,7 +2572,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2529,7 +2583,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2540,7 +2594,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2551,7 +2605,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2562,7 +2616,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2573,7 +2627,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2584,7 +2638,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2595,7 +2649,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2606,7 +2660,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2617,7 +2671,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2628,7 +2682,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2639,7 +2693,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2650,7 +2704,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2661,7 +2715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2672,7 +2726,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2683,7 +2737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2694,7 +2748,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2705,7 +2759,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2716,7 +2770,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2727,7 +2781,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2738,7 +2792,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2749,7 +2803,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2760,7 +2814,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2771,7 +2825,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2782,7 +2836,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2793,7 +2847,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2804,7 +2858,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2815,7 +2869,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2826,7 +2880,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -2837,7 +2891,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -2848,7 +2902,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -2859,7 +2913,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -2870,7 +2924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -2881,7 +2935,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -2892,7 +2946,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -2903,7 +2957,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -2914,7 +2968,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -2925,7 +2979,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -2936,7 +2990,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -2947,7 +3001,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -2958,7 +3012,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -2969,7 +3023,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -2980,7 +3034,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -2991,7 +3045,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -3002,7 +3056,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -3013,7 +3067,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -3024,7 +3078,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3035,7 +3089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3046,7 +3100,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3057,7 +3111,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3068,7 +3122,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3079,7 +3133,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3090,7 +3144,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3101,7 +3155,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3112,7 +3166,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3123,7 +3177,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3134,7 +3188,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3145,7 +3199,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3156,7 +3210,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3167,7 +3221,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3178,7 +3232,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3189,7 +3243,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3200,7 +3254,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3211,7 +3265,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3222,7 +3276,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3233,7 +3287,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3244,7 +3298,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3255,7 +3309,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43297</v>
       </c>
@@ -3266,7 +3320,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43297</v>
       </c>
@@ -3277,7 +3331,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43298</v>
       </c>
@@ -3288,7 +3342,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43298</v>
       </c>
@@ -3299,7 +3353,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43298</v>
       </c>
@@ -3310,7 +3364,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43299</v>
       </c>
@@ -3319,6 +3373,105 @@
       </c>
       <c r="C177" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B178" t="s">
+        <v>340</v>
+      </c>
+      <c r="C178" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B179" t="s">
+        <v>341</v>
+      </c>
+      <c r="C179" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B180" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B181" t="s">
+        <v>345</v>
+      </c>
+      <c r="C181" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B182" t="s">
+        <v>346</v>
+      </c>
+      <c r="C182" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B183" t="s">
+        <v>348</v>
+      </c>
+      <c r="C183" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B184" t="s">
+        <v>350</v>
+      </c>
+      <c r="C184" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B185" t="s">
+        <v>352</v>
+      </c>
+      <c r="C185" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B186" t="s">
+        <v>355</v>
+      </c>
+      <c r="C186" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="367">
   <si>
     <t>Datum</t>
   </si>
@@ -1095,6 +1095,36 @@
   </si>
   <si>
     <t>Die Drohne hat das zeug zum fliegen. Sogar bei sehr kleinen Geschwindigkeiten. Es ist wichtig vorsichtig zu sein. Mal wieder ein Crash!</t>
+  </si>
+  <si>
+    <t>2018-07-21 1.JPG</t>
+  </si>
+  <si>
+    <t>Heute saßen 1 Gelernter und 2 Hobby-Ingeneure um die Drohne, um feinarbeiten zu lösen. U.A. wurden die Motoren stark und Vibrationshemmend befestigt</t>
+  </si>
+  <si>
+    <t>2018-07-21 2.JPG</t>
+  </si>
+  <si>
+    <t>Der Akku und die Kontrolleinheit fixiert</t>
+  </si>
+  <si>
+    <t>2018-07-21 3.JPG</t>
+  </si>
+  <si>
+    <t>Und eine Handfreie Startplattform gebaut</t>
+  </si>
+  <si>
+    <t>2018-07-21 4.AVI</t>
+  </si>
+  <si>
+    <t>Jetzt wird die Drohne getestet, insbesondere ob die Lagensteuerung schräglagen in die richtige Richtung ausgleicht</t>
+  </si>
+  <si>
+    <t>2018-07-21 5.AVI</t>
+  </si>
+  <si>
+    <t>Auf der Startplattform fliegt die Drohne schon wenige Zentimeter über dem Boden, ohne große anomalitäten oder Probleme aufzuweisen! "Mal sehen, ob sie das Brett hebt" - Opa :D</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3474,6 +3504,61 @@
         <v>356</v>
       </c>
     </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B187" t="s">
+        <v>357</v>
+      </c>
+      <c r="C187" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B188" t="s">
+        <v>359</v>
+      </c>
+      <c r="C188" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B189" t="s">
+        <v>361</v>
+      </c>
+      <c r="C189" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B190" t="s">
+        <v>363</v>
+      </c>
+      <c r="C190" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B191" t="s">
+        <v>365</v>
+      </c>
+      <c r="C191" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="389">
   <si>
     <t>Datum</t>
   </si>
@@ -1125,6 +1125,72 @@
   </si>
   <si>
     <t>Auf der Startplattform fliegt die Drohne schon wenige Zentimeter über dem Boden, ohne große anomalitäten oder Probleme aufzuweisen! "Mal sehen, ob sie das Brett hebt" - Opa :D</t>
+  </si>
+  <si>
+    <t>2018-07-23 1.JPG</t>
+  </si>
+  <si>
+    <t>Der Spannungsgraph mit Powerbank. Sieht nicht besser aus, funktioniert aber besserjj</t>
+  </si>
+  <si>
+    <t>2018-07-23 2.JPG</t>
+  </si>
+  <si>
+    <t>Neue Drohne + Kater</t>
+  </si>
+  <si>
+    <t>2018-07-23 3.JPG</t>
+  </si>
+  <si>
+    <t>Brotzeit ;D</t>
+  </si>
+  <si>
+    <t>2018-07-23 4.AVI</t>
+  </si>
+  <si>
+    <t>Die Drohne verhält sich nicht mehr gut. Nach dem gestrigen Erfolg - ernüchterung</t>
+  </si>
+  <si>
+    <t>2018-07-23 5.AVI</t>
+  </si>
+  <si>
+    <t>STABILE leistung</t>
+  </si>
+  <si>
+    <t>2018-07-23 6.AVI</t>
+  </si>
+  <si>
+    <t>Übermut tut selten gut</t>
+  </si>
+  <si>
+    <t>2018-07-23 7.AVI</t>
+  </si>
+  <si>
+    <t>Purzelbaum ;D</t>
+  </si>
+  <si>
+    <t>2018-07-23 8.jpg</t>
+  </si>
+  <si>
+    <t>Tests in der Wiese</t>
+  </si>
+  <si>
+    <t>2018-07-23 9.jpg</t>
+  </si>
+  <si>
+    <t>Tests in der Wiese 2 bitte GIF erstellen</t>
+  </si>
+  <si>
+    <t>2018-07-23 10.jpg</t>
+  </si>
+  <si>
+    <t>Flugtest und Absturz 1</t>
+  </si>
+  <si>
+    <t>2018-07-23 11.jpg</t>
+  </si>
+  <si>
+    <t>Flugtest und Absturz 2</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3559,6 +3625,127 @@
         <v>366</v>
       </c>
     </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B192" t="s">
+        <v>367</v>
+      </c>
+      <c r="C192" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B193" t="s">
+        <v>369</v>
+      </c>
+      <c r="C193" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B194" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B195" t="s">
+        <v>373</v>
+      </c>
+      <c r="C195" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B196" t="s">
+        <v>375</v>
+      </c>
+      <c r="C196" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B197" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B198" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B199" t="s">
+        <v>381</v>
+      </c>
+      <c r="C199" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B200" t="s">
+        <v>383</v>
+      </c>
+      <c r="C200" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B201" t="s">
+        <v>385</v>
+      </c>
+      <c r="C201" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B202" t="s">
+        <v>387</v>
+      </c>
+      <c r="C202" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="393">
   <si>
     <t>Datum</t>
   </si>
@@ -1181,16 +1181,28 @@
     <t>Tests in der Wiese 2 bitte GIF erstellen</t>
   </si>
   <si>
-    <t>2018-07-23 10.jpg</t>
-  </si>
-  <si>
     <t>Flugtest und Absturz 1</t>
   </si>
   <si>
-    <t>2018-07-23 11.jpg</t>
-  </si>
-  <si>
     <t>Flugtest und Absturz 2</t>
+  </si>
+  <si>
+    <t>2018-07-24 1.jpg</t>
+  </si>
+  <si>
+    <t>Das Bayrische Fernsehen hat uns besucht um einen kurzen Abendschau beitrag zu drehen</t>
+  </si>
+  <si>
+    <t>2018-07-24 2.jpg</t>
+  </si>
+  <si>
+    <t>Kamerateam 2</t>
+  </si>
+  <si>
+    <t>2018-07-23 11.mp4</t>
+  </si>
+  <si>
+    <t>2018-07-23 10.mp4</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191:C191"/>
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3729,10 +3741,10 @@
         <v>43304</v>
       </c>
       <c r="B201" t="s">
+        <v>392</v>
+      </c>
+      <c r="C201" t="s">
         <v>385</v>
-      </c>
-      <c r="C201" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -3740,10 +3752,32 @@
         <v>43304</v>
       </c>
       <c r="B202" t="s">
+        <v>391</v>
+      </c>
+      <c r="C202" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>43305</v>
+      </c>
+      <c r="B203" t="s">
         <v>387</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>43305</v>
+      </c>
+      <c r="B204" t="s">
+        <v>389</v>
+      </c>
+      <c r="C204" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="395">
   <si>
     <t>Datum</t>
   </si>
@@ -1203,6 +1203,12 @@
   </si>
   <si>
     <t>2018-07-23 10.mp4</t>
+  </si>
+  <si>
+    <t>2018-08.02.avi</t>
+  </si>
+  <si>
+    <t>Die letzten Tage wurden damit verbracht ein bisschen an der Flugstabilität zu feilen. Es ist inzwischen okay, aber nicht so verlässlich, wie es für autonomes Fliegen notwendig wäre!</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3780,6 +3786,17 @@
         <v>390</v>
       </c>
     </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>43314</v>
+      </c>
+      <c r="B205" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="396">
   <si>
     <t>Datum</t>
   </si>
@@ -1209,6 +1209,9 @@
   </si>
   <si>
     <t>Die letzten Tage wurden damit verbracht ein bisschen an der Flugstabilität zu feilen. Es ist inzwischen okay, aber nicht so verlässlich, wie es für autonomes Fliegen notwendig wäre!</t>
+  </si>
+  <si>
+    <t>Heute ist ein historischer Tag. Niemals wurde mir so stark ins Gesicht geschriehen, dass ich dumm bin. Ich erwarte, und benötige auto-level funktion für die Drohne, die hat YMFC-3d-v2 nicht!!!!</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3797,6 +3800,14 @@
         <v>394</v>
       </c>
     </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>43315</v>
+      </c>
+      <c r="C206" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="408">
   <si>
     <t>Datum</t>
   </si>
@@ -1212,6 +1212,42 @@
   </si>
   <si>
     <t>Heute ist ein historischer Tag. Niemals wurde mir so stark ins Gesicht geschriehen, dass ich dumm bin. Ich erwarte, und benötige auto-level funktion für die Drohne, die hat YMFC-3d-v2 nicht!!!!</t>
+  </si>
+  <si>
+    <t>Die vorarbeit von gestern hat sich gelohnt. Ein ganzes Bild kann nun in 130ms ausgelesen werden. Mit der vorherigen Bibiliothek waren es noch &gt;5s</t>
+  </si>
+  <si>
+    <t>2018-08-05 1.PNG</t>
+  </si>
+  <si>
+    <t>2018-05-08 2.jpg</t>
+  </si>
+  <si>
+    <t>Das Bild kann jetzt auch in Java gespeichert werden. Es scheint, als hätte das Stundenlange rumprobieren endlich ein Ende</t>
+  </si>
+  <si>
+    <t>2018-05-08 3.jpg</t>
+  </si>
+  <si>
+    <t>So sieht das Bild richtig aus. Es wurde mit raspistill aufgenommen</t>
+  </si>
+  <si>
+    <t>2018-05-08 4.jpg</t>
+  </si>
+  <si>
+    <t>Es klappt einfach nicht. Ich gebe mich langsam geschlagen und hätte eine erkennung für blau-rosa blumen geschrieben</t>
+  </si>
+  <si>
+    <t>2018-05-08 5.jpg</t>
+  </si>
+  <si>
+    <t>Lichtblicke. Das weiß ist schon okay, die konversation von yuv zu rgb scheint nicht ganz geklappt zu haben</t>
+  </si>
+  <si>
+    <t>2018-05-08 6.jpg</t>
+  </si>
+  <si>
+    <t>Endlich nach 2-4 Tagen Arbeit, ein Bild in aller schönheit und pracht mit erkennbaren farben wird gespeichert. Es ist für die erkennung nur leider etwas verwaschen… nach einer Performanceverbesserung sind es jetzt 30 ms</t>
   </si>
 </sst>
 </file>
@@ -1531,21 +1567,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1567,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1578,7 +1614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1589,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1600,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1611,7 +1647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1622,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1633,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1644,7 +1680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1655,7 +1691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1677,7 +1713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1688,7 +1724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1699,7 +1735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1710,7 +1746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1721,7 +1757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1743,7 +1779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1754,7 +1790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1765,7 +1801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1776,7 +1812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1809,7 +1845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1820,7 +1856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1831,7 +1867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1842,7 +1878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1853,7 +1889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1864,7 +1900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1886,7 +1922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1897,7 +1933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1908,7 +1944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1919,7 +1955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1930,7 +1966,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1941,7 +1977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -1952,7 +1988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -1963,7 +1999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -1974,7 +2010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -1985,7 +2021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -1996,7 +2032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -2007,7 +2043,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -2018,7 +2054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -2029,7 +2065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -2040,7 +2076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -2051,7 +2087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -2062,7 +2098,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2073,7 +2109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -2084,7 +2120,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -2095,7 +2131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -2106,7 +2142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -2117,7 +2153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -2128,7 +2164,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -2139,7 +2175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -2150,7 +2186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -2161,7 +2197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -2183,7 +2219,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -2194,7 +2230,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2205,7 +2241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2216,7 +2252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2227,7 +2263,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2238,7 +2274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2249,7 +2285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2260,7 +2296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2271,7 +2307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2282,7 +2318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2293,7 +2329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2304,7 +2340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2315,7 +2351,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2326,7 +2362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2337,7 +2373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2348,7 +2384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2359,7 +2395,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2370,7 +2406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2381,7 +2417,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2392,7 +2428,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2403,7 +2439,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2414,7 +2450,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2425,7 +2461,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2436,7 +2472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2447,7 +2483,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2458,7 +2494,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2469,7 +2505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2480,7 +2516,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2491,7 +2527,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2502,7 +2538,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2513,7 +2549,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2524,7 +2560,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2535,7 +2571,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2546,7 +2582,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2557,7 +2593,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2568,7 +2604,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2579,7 +2615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2590,7 +2626,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2601,7 +2637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2612,7 +2648,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2623,7 +2659,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2634,7 +2670,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2645,7 +2681,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2656,7 +2692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2667,7 +2703,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2678,7 +2714,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2689,7 +2725,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2700,7 +2736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2711,7 +2747,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2722,7 +2758,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2733,7 +2769,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2744,7 +2780,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2755,7 +2791,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2766,7 +2802,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2777,7 +2813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2788,7 +2824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2799,7 +2835,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2810,7 +2846,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2821,7 +2857,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2832,7 +2868,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2843,7 +2879,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2854,7 +2890,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2865,7 +2901,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2876,7 +2912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2887,7 +2923,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2898,7 +2934,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2909,7 +2945,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2920,7 +2956,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2931,7 +2967,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2942,7 +2978,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -2953,7 +2989,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -2964,7 +3000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -2975,7 +3011,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -3008,7 +3044,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -3019,7 +3055,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -3030,7 +3066,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -3041,7 +3077,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -3052,7 +3088,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -3063,7 +3099,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -3074,7 +3110,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -3085,7 +3121,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -3096,7 +3132,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -3107,7 +3143,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -3118,7 +3154,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -3129,7 +3165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -3140,7 +3176,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -3151,7 +3187,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -3162,7 +3198,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -3173,7 +3209,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -3184,7 +3220,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -3195,7 +3231,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3206,7 +3242,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3217,7 +3253,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3239,7 +3275,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3250,7 +3286,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3272,7 +3308,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3283,7 +3319,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3294,7 +3330,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3305,7 +3341,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3316,7 +3352,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3327,7 +3363,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3338,7 +3374,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3349,7 +3385,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3360,7 +3396,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3371,7 +3407,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3382,7 +3418,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3393,7 +3429,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3404,7 +3440,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3415,7 +3451,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3426,7 +3462,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43297</v>
       </c>
@@ -3437,7 +3473,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43297</v>
       </c>
@@ -3448,7 +3484,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43298</v>
       </c>
@@ -3459,7 +3495,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43298</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43298</v>
       </c>
@@ -3481,7 +3517,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43299</v>
       </c>
@@ -3492,7 +3528,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43300</v>
       </c>
@@ -3503,7 +3539,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43300</v>
       </c>
@@ -3514,7 +3550,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43300</v>
       </c>
@@ -3525,7 +3561,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43300</v>
       </c>
@@ -3536,7 +3572,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43300</v>
       </c>
@@ -3547,7 +3583,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43300</v>
       </c>
@@ -3558,7 +3594,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43300</v>
       </c>
@@ -3569,7 +3605,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43300</v>
       </c>
@@ -3580,7 +3616,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43300</v>
       </c>
@@ -3591,7 +3627,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43302</v>
       </c>
@@ -3602,7 +3638,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43302</v>
       </c>
@@ -3613,7 +3649,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43302</v>
       </c>
@@ -3624,7 +3660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43302</v>
       </c>
@@ -3635,7 +3671,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43302</v>
       </c>
@@ -3646,7 +3682,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43304</v>
       </c>
@@ -3657,7 +3693,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43304</v>
       </c>
@@ -3668,7 +3704,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43304</v>
       </c>
@@ -3679,7 +3715,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43304</v>
       </c>
@@ -3690,7 +3726,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43304</v>
       </c>
@@ -3701,7 +3737,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43304</v>
       </c>
@@ -3712,7 +3748,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43304</v>
       </c>
@@ -3723,7 +3759,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43304</v>
       </c>
@@ -3734,7 +3770,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43304</v>
       </c>
@@ -3745,7 +3781,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43304</v>
       </c>
@@ -3756,7 +3792,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43304</v>
       </c>
@@ -3767,7 +3803,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43305</v>
       </c>
@@ -3778,7 +3814,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43305</v>
       </c>
@@ -3789,7 +3825,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43314</v>
       </c>
@@ -3800,12 +3836,78 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43315</v>
       </c>
       <c r="C206" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B207" t="s">
+        <v>397</v>
+      </c>
+      <c r="C207" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B208" t="s">
+        <v>398</v>
+      </c>
+      <c r="C208" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B209" t="s">
+        <v>400</v>
+      </c>
+      <c r="C209" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B210" t="s">
+        <v>402</v>
+      </c>
+      <c r="C210" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B211" t="s">
+        <v>404</v>
+      </c>
+      <c r="C211" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B212" t="s">
+        <v>406</v>
+      </c>
+      <c r="C212" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -15,16 +15,12 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="414">
   <si>
     <t>Datum</t>
   </si>
@@ -1248,6 +1244,24 @@
   </si>
   <si>
     <t>Endlich nach 2-4 Tagen Arbeit, ein Bild in aller schönheit und pracht mit erkennbaren farben wird gespeichert. Es ist für die erkennung nur leider etwas verwaschen… nach einer Performanceverbesserung sind es jetzt 30 ms</t>
+  </si>
+  <si>
+    <t>2018-08-13 1.jpg</t>
+  </si>
+  <si>
+    <t>Die Fertingungsstrecke für die Blumen ist fertig und funktioniert</t>
+  </si>
+  <si>
+    <t>2018-08-13 2.jpg</t>
+  </si>
+  <si>
+    <t>Die Positionen werden jetzt auch von der Drohne an die Basisstation verschickt</t>
+  </si>
+  <si>
+    <t>2018-08-13 3.jpg</t>
+  </si>
+  <si>
+    <t>Das Fadenkreuz enthät mehr informationen</t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,6 +3924,39 @@
         <v>407</v>
       </c>
     </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B213" t="s">
+        <v>408</v>
+      </c>
+      <c r="C213" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B214" t="s">
+        <v>410</v>
+      </c>
+      <c r="C214" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B215" t="s">
+        <v>412</v>
+      </c>
+      <c r="C215" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="420">
   <si>
     <t>Datum</t>
   </si>
@@ -1262,6 +1261,24 @@
   </si>
   <si>
     <t>Das Fadenkreuz enthät mehr informationen</t>
+  </si>
+  <si>
+    <t>2018-08-13 4.jpg</t>
+  </si>
+  <si>
+    <t>Die neuen Teile wurden in einen Schaltplan eingearbeitet</t>
+  </si>
+  <si>
+    <t>2018-08-13 5.jpg</t>
+  </si>
+  <si>
+    <t>Und gleich verlötet</t>
+  </si>
+  <si>
+    <t>2018-08-13 6.jpg</t>
+  </si>
+  <si>
+    <t>Zum Üben und um ein Fluggefühl zu erlangen, haben wir jetzt noch eine spielzeugdrohne. Es ist wirklich schwer. Wahrscheinlich kann der Computer sie schneller fliegen als wir</t>
   </si>
 </sst>
 </file>
@@ -1581,21 +1598,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1617,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1628,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1639,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1650,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1661,7 +1678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1672,7 +1689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1683,7 +1700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1694,7 +1711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1716,7 +1733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1727,7 +1744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1749,7 +1766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1760,7 +1777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1782,7 +1799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1804,7 +1821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1815,7 +1832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1826,7 +1843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1837,7 +1854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1848,7 +1865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1881,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1914,7 +1931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1925,7 +1942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -2002,7 +2019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -2013,7 +2030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -2035,7 +2052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -2057,7 +2074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -2068,7 +2085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -2079,7 +2096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -2101,7 +2118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -2112,7 +2129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2123,7 +2140,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -2134,7 +2151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -2145,7 +2162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -2156,7 +2173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -2178,7 +2195,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -2189,7 +2206,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -2200,7 +2217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -2211,7 +2228,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -2222,7 +2239,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -2244,7 +2261,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2266,7 +2283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2277,7 +2294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2310,7 +2327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2321,7 +2338,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2343,7 +2360,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2376,7 +2393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2387,7 +2404,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2398,7 +2415,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2420,7 +2437,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2453,7 +2470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2475,7 +2492,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2486,7 +2503,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2497,7 +2514,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2508,7 +2525,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2519,7 +2536,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2530,7 +2547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2541,7 +2558,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2552,7 +2569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2563,7 +2580,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2574,7 +2591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2585,7 +2602,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2596,7 +2613,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2607,7 +2624,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2618,7 +2635,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2629,7 +2646,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2640,7 +2657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2651,7 +2668,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2662,7 +2679,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2684,7 +2701,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2695,7 +2712,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2706,7 +2723,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2717,7 +2734,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2728,7 +2745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2739,7 +2756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2750,7 +2767,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2761,7 +2778,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2772,7 +2789,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2783,7 +2800,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2794,7 +2811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2805,7 +2822,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2827,7 +2844,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2838,7 +2855,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2849,7 +2866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2860,7 +2877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2871,7 +2888,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2882,7 +2899,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2893,7 +2910,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2904,7 +2921,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2915,7 +2932,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2926,7 +2943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2937,7 +2954,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2959,7 +2976,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2970,7 +2987,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -2981,7 +2998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -2992,7 +3009,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -3003,7 +3020,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -3014,7 +3031,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -3025,7 +3042,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -3036,7 +3053,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -3047,7 +3064,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -3069,7 +3086,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -3080,7 +3097,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -3091,7 +3108,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -3102,7 +3119,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -3113,7 +3130,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -3124,7 +3141,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -3135,7 +3152,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -3146,7 +3163,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -3157,7 +3174,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -3168,7 +3185,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -3179,7 +3196,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -3190,7 +3207,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -3201,7 +3218,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -3212,7 +3229,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -3223,7 +3240,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -3234,7 +3251,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -3245,7 +3262,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3256,7 +3273,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3278,7 +3295,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3300,7 +3317,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3322,7 +3339,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3344,7 +3361,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3366,7 +3383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3388,7 +3405,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3399,7 +3416,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3432,7 +3449,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3454,7 +3471,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3476,7 +3493,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43297</v>
       </c>
@@ -3487,7 +3504,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43297</v>
       </c>
@@ -3498,7 +3515,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43298</v>
       </c>
@@ -3509,7 +3526,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43298</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43298</v>
       </c>
@@ -3531,7 +3548,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43299</v>
       </c>
@@ -3542,7 +3559,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43300</v>
       </c>
@@ -3553,7 +3570,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43300</v>
       </c>
@@ -3564,7 +3581,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43300</v>
       </c>
@@ -3575,7 +3592,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43300</v>
       </c>
@@ -3586,7 +3603,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43300</v>
       </c>
@@ -3597,7 +3614,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43300</v>
       </c>
@@ -3608,7 +3625,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43300</v>
       </c>
@@ -3619,7 +3636,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43300</v>
       </c>
@@ -3630,7 +3647,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43300</v>
       </c>
@@ -3641,7 +3658,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43302</v>
       </c>
@@ -3652,7 +3669,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43302</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43302</v>
       </c>
@@ -3674,7 +3691,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43302</v>
       </c>
@@ -3685,7 +3702,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43302</v>
       </c>
@@ -3696,7 +3713,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43304</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43304</v>
       </c>
@@ -3718,7 +3735,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43304</v>
       </c>
@@ -3729,7 +3746,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43304</v>
       </c>
@@ -3740,7 +3757,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43304</v>
       </c>
@@ -3751,7 +3768,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43304</v>
       </c>
@@ -3762,7 +3779,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43304</v>
       </c>
@@ -3773,7 +3790,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43304</v>
       </c>
@@ -3784,7 +3801,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43304</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43304</v>
       </c>
@@ -3806,7 +3823,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43304</v>
       </c>
@@ -3817,7 +3834,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43305</v>
       </c>
@@ -3828,7 +3845,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43305</v>
       </c>
@@ -3839,7 +3856,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43314</v>
       </c>
@@ -3850,7 +3867,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43315</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43317</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43317</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43317</v>
       </c>
@@ -3891,7 +3908,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43317</v>
       </c>
@@ -3902,7 +3919,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43317</v>
       </c>
@@ -3913,7 +3930,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43317</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43325</v>
       </c>
@@ -3935,7 +3952,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43325</v>
       </c>
@@ -3946,7 +3963,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43325</v>
       </c>
@@ -3955,6 +3972,39 @@
       </c>
       <c r="C215" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B216" t="s">
+        <v>414</v>
+      </c>
+      <c r="C216" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B217" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B218" t="s">
+        <v>418</v>
+      </c>
+      <c r="C218" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="424">
   <si>
     <t>Datum</t>
   </si>
@@ -1279,6 +1279,18 @@
   </si>
   <si>
     <t>Zum Üben und um ein Fluggefühl zu erlangen, haben wir jetzt noch eine spielzeugdrohne. Es ist wirklich schwer. Wahrscheinlich kann der Computer sie schneller fliegen als wir</t>
+  </si>
+  <si>
+    <t>2018-08-13 7.jpg</t>
+  </si>
+  <si>
+    <t>Ein 10h Arbeitstag später und nach beendigung von Claus lötarbeit, haben wir eine neue mittelplatine</t>
+  </si>
+  <si>
+    <t>2018-08-13 8.jpg</t>
+  </si>
+  <si>
+    <t>Close Up 2</t>
   </si>
 </sst>
 </file>
@@ -1598,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4007,6 +4019,28 @@
         <v>419</v>
       </c>
     </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B219" t="s">
+        <v>420</v>
+      </c>
+      <c r="C219" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B220" t="s">
+        <v>422</v>
+      </c>
+      <c r="C220" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="426">
   <si>
     <t>Datum</t>
   </si>
@@ -1291,6 +1291,12 @@
   </si>
   <si>
     <t>Close Up 2</t>
+  </si>
+  <si>
+    <t>2018-08-27.jpg</t>
+  </si>
+  <si>
+    <t>STM und Arduino reden jetzt miteinander. Eine Rekordverdächtige geschwindigkeit von 80us für 10 bytes wurde erreicht. Der Raspberry PI kommt nicht hinterher, hat aber auch Zeit :D</t>
   </si>
 </sst>
 </file>
@@ -1610,21 +1616,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43297</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43297</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43298</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43298</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43298</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43299</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43300</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43300</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43300</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43300</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43300</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43300</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43300</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43300</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43300</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43302</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43302</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43302</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43302</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43302</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43304</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43304</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43304</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43304</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43304</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43304</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43304</v>
       </c>
@@ -3802,7 +3808,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43304</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43304</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43304</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43304</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43305</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43305</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43314</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43315</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43317</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43317</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43317</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43317</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43317</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43317</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43325</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43325</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43325</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43325</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43325</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43325</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43325</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43325</v>
       </c>
@@ -4039,6 +4045,17 @@
       </c>
       <c r="C220" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B221" t="s">
+        <v>424</v>
+      </c>
+      <c r="C221" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="454">
   <si>
     <t>Datum</t>
   </si>
@@ -1293,10 +1293,94 @@
     <t>Close Up 2</t>
   </si>
   <si>
-    <t>2018-08-27.jpg</t>
-  </si>
-  <si>
     <t>STM und Arduino reden jetzt miteinander. Eine Rekordverdächtige geschwindigkeit von 80us für 10 bytes wurde erreicht. Der Raspberry PI kommt nicht hinterher, hat aber auch Zeit :D</t>
+  </si>
+  <si>
+    <t>2018-08-27 1.jpg</t>
+  </si>
+  <si>
+    <t>2018-08-27 2.jpg</t>
+  </si>
+  <si>
+    <t>Einmal von Außen betrachtet</t>
+  </si>
+  <si>
+    <t>2018-08-15.jpg</t>
+  </si>
+  <si>
+    <t>Das Löten ist fertig. Der neue Microcontroller kann programmiert werden</t>
+  </si>
+  <si>
+    <t>2018-08-28 1.JPG</t>
+  </si>
+  <si>
+    <t>Die ESCs bekommen die richtigen Signale. Ich habe auch endlich gelernt, ein Oszilloskop zu benutzen :)</t>
+  </si>
+  <si>
+    <t>2018-08-28 2.AVI</t>
+  </si>
+  <si>
+    <t>Die Motoren Drehen sich mit dem STM. Eigentlilch könnte man jetzt den ersten Flugversuch starten, das Sozialleben ist dann doch eingeschritten</t>
+  </si>
+  <si>
+    <t>2018-08-30 1.AVI</t>
+  </si>
+  <si>
+    <t>Entrüstung. RasPI hat den Geist aufgegeben</t>
+  </si>
+  <si>
+    <t>2018-08-30 2.JPG</t>
+  </si>
+  <si>
+    <t>Todesmeldung</t>
+  </si>
+  <si>
+    <t>2018-08-28 3.JPG</t>
+  </si>
+  <si>
+    <t>Nach dem Urlaub muss die Drohne erst mal von Staub befreit werden</t>
+  </si>
+  <si>
+    <t>2018-09-01 1.JPG</t>
+  </si>
+  <si>
+    <t>Der Raspbery PI ist nachbestellt, es können Flüge gemacht werden, aber der erste Dauerregen hat eingesetzt ;(</t>
+  </si>
+  <si>
+    <t>2018-09-01 2.JPG</t>
+  </si>
+  <si>
+    <t>Gott sei dank haben wir ein Großes Wohnzimmer und ich hab Sturmfrei… Für eine Party? Nein für die Drohne!</t>
+  </si>
+  <si>
+    <t>2018-09-01 3.AVI</t>
+  </si>
+  <si>
+    <t>Test der Motoren ohne Propeller, hört sich gut an</t>
+  </si>
+  <si>
+    <t>2018-09-01 4.AVI</t>
+  </si>
+  <si>
+    <t>Mit Propellern drehen sie sich auch noch. Alles sieht gut aus!</t>
+  </si>
+  <si>
+    <t>2018-09-01 5.AVI</t>
+  </si>
+  <si>
+    <t>Überrascht stelle ich fest, wie die Drohne bei allen Hand-Tests zuvor hätte reagieren Sollen. Auch bei starkem drücken und drehen weigert sich die Drohne zu folgen…</t>
+  </si>
+  <si>
+    <t>2018-09-01 6.AVI</t>
+  </si>
+  <si>
+    <t>Die Drohne steht kurz kontrolliert in der Luft. Für mehr ist im Haus leider nicht genug Platz. Uncut Momente der Fassungslosigkeit und Glück</t>
+  </si>
+  <si>
+    <t>2018-09-01 7.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Drohne ähneld immer mehr einem Kabelsalat… </t>
   </si>
 </sst>
 </file>
@@ -1616,21 +1700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.44140625" customWidth="1"/>
+    <col min="4" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1652,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1663,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1674,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1685,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1696,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1707,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1718,7 +1802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1729,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1740,7 +1824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1751,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1762,7 +1846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1773,7 +1857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1784,7 +1868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1795,7 +1879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1806,7 +1890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1817,7 +1901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1828,7 +1912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1839,7 +1923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1850,7 +1934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1861,7 +1945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1872,7 +1956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1883,7 +1967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -1894,7 +1978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -1905,7 +1989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -1916,7 +2000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -1927,7 +2011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1938,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -1949,7 +2033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -1960,7 +2044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -1971,7 +2055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -1982,7 +2066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -1993,7 +2077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -2004,7 +2088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -2015,7 +2099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -2026,7 +2110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -2037,7 +2121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -2048,7 +2132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -2059,7 +2143,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -2070,7 +2154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -2081,7 +2165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -2092,7 +2176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -2103,7 +2187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -2114,7 +2198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -2125,7 +2209,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -2136,7 +2220,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -2147,7 +2231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2158,7 +2242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -2169,7 +2253,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -2180,7 +2264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -2191,7 +2275,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -2202,7 +2286,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -2213,7 +2297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -2224,7 +2308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -2235,7 +2319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -2246,7 +2330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -2257,7 +2341,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -2268,7 +2352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -2279,7 +2363,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2290,7 +2374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2301,7 +2385,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2312,7 +2396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2323,7 +2407,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2334,7 +2418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2345,7 +2429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2356,7 +2440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2367,7 +2451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2378,7 +2462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2389,7 +2473,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2400,7 +2484,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2411,7 +2495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2422,7 +2506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2433,7 +2517,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2444,7 +2528,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2455,7 +2539,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2466,7 +2550,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2477,7 +2561,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2488,7 +2572,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2499,7 +2583,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2510,7 +2594,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2521,7 +2605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2532,7 +2616,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2543,7 +2627,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2554,7 +2638,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2565,7 +2649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2576,7 +2660,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2587,7 +2671,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2598,7 +2682,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2609,7 +2693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2620,7 +2704,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2631,7 +2715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2642,7 +2726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2653,7 +2737,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2664,7 +2748,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2675,7 +2759,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2686,7 +2770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2697,7 +2781,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2708,7 +2792,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2719,7 +2803,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2730,7 +2814,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2741,7 +2825,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2752,7 +2836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2763,7 +2847,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2774,7 +2858,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2785,7 +2869,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2796,7 +2880,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2807,7 +2891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2818,7 +2902,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2829,7 +2913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2840,7 +2924,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2851,7 +2935,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2862,7 +2946,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2873,7 +2957,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2884,7 +2968,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -2895,7 +2979,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -2906,7 +2990,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -2917,7 +3001,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -2928,7 +3012,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -2939,7 +3023,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -2950,7 +3034,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -2961,7 +3045,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -2972,7 +3056,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -2983,7 +3067,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -2994,7 +3078,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -3005,7 +3089,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -3016,7 +3100,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -3027,7 +3111,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -3038,7 +3122,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -3049,7 +3133,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -3060,7 +3144,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -3071,7 +3155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -3082,7 +3166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -3093,7 +3177,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -3104,7 +3188,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -3115,7 +3199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -3126,7 +3210,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -3137,7 +3221,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -3148,7 +3232,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -3159,7 +3243,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -3170,7 +3254,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -3181,7 +3265,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -3192,7 +3276,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -3203,7 +3287,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -3214,7 +3298,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -3225,7 +3309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -3236,7 +3320,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -3247,7 +3331,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -3258,7 +3342,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -3269,7 +3353,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -3280,7 +3364,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3291,7 +3375,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3302,7 +3386,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3313,7 +3397,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3324,7 +3408,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3335,7 +3419,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3346,7 +3430,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3357,7 +3441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3368,7 +3452,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3379,7 +3463,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3390,7 +3474,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3401,7 +3485,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3412,7 +3496,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3423,7 +3507,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3434,7 +3518,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3445,7 +3529,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3456,7 +3540,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3467,7 +3551,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3478,7 +3562,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3489,7 +3573,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3500,7 +3584,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3511,7 +3595,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>43297</v>
       </c>
@@ -3522,7 +3606,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>43297</v>
       </c>
@@ -3533,7 +3617,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>43298</v>
       </c>
@@ -3544,7 +3628,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>43298</v>
       </c>
@@ -3555,7 +3639,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>43298</v>
       </c>
@@ -3566,7 +3650,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>43299</v>
       </c>
@@ -3577,7 +3661,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43300</v>
       </c>
@@ -3588,7 +3672,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43300</v>
       </c>
@@ -3599,7 +3683,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43300</v>
       </c>
@@ -3610,7 +3694,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43300</v>
       </c>
@@ -3621,7 +3705,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43300</v>
       </c>
@@ -3632,7 +3716,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43300</v>
       </c>
@@ -3643,7 +3727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43300</v>
       </c>
@@ -3654,7 +3738,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43300</v>
       </c>
@@ -3665,7 +3749,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43300</v>
       </c>
@@ -3676,7 +3760,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43302</v>
       </c>
@@ -3687,7 +3771,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43302</v>
       </c>
@@ -3698,7 +3782,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43302</v>
       </c>
@@ -3709,7 +3793,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43302</v>
       </c>
@@ -3720,7 +3804,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43302</v>
       </c>
@@ -3731,7 +3815,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43304</v>
       </c>
@@ -3742,7 +3826,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43304</v>
       </c>
@@ -3753,7 +3837,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43304</v>
       </c>
@@ -3764,7 +3848,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43304</v>
       </c>
@@ -3775,7 +3859,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43304</v>
       </c>
@@ -3786,7 +3870,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43304</v>
       </c>
@@ -3797,7 +3881,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43304</v>
       </c>
@@ -3808,7 +3892,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43304</v>
       </c>
@@ -3819,7 +3903,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43304</v>
       </c>
@@ -3830,7 +3914,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43304</v>
       </c>
@@ -3841,7 +3925,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43304</v>
       </c>
@@ -3852,7 +3936,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43305</v>
       </c>
@@ -3863,7 +3947,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43305</v>
       </c>
@@ -3874,7 +3958,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43314</v>
       </c>
@@ -3885,7 +3969,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43315</v>
       </c>
@@ -3893,7 +3977,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43317</v>
       </c>
@@ -3904,7 +3988,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43317</v>
       </c>
@@ -3915,7 +3999,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43317</v>
       </c>
@@ -3926,7 +4010,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43317</v>
       </c>
@@ -3937,7 +4021,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>43317</v>
       </c>
@@ -3948,7 +4032,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>43317</v>
       </c>
@@ -3959,7 +4043,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>43325</v>
       </c>
@@ -3970,7 +4054,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>43325</v>
       </c>
@@ -3981,7 +4065,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>43325</v>
       </c>
@@ -3992,7 +4076,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>43325</v>
       </c>
@@ -4003,7 +4087,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>43325</v>
       </c>
@@ -4014,7 +4098,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>43325</v>
       </c>
@@ -4025,7 +4109,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>43325</v>
       </c>
@@ -4036,7 +4120,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>43325</v>
       </c>
@@ -4047,15 +4131,169 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>43339</v>
       </c>
       <c r="B221" t="s">
+        <v>425</v>
+      </c>
+      <c r="C221" t="s">
         <v>424</v>
       </c>
-      <c r="C221" t="s">
-        <v>425</v>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B222" t="s">
+        <v>426</v>
+      </c>
+      <c r="C222" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>43327</v>
+      </c>
+      <c r="B223" t="s">
+        <v>428</v>
+      </c>
+      <c r="C223" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>43340</v>
+      </c>
+      <c r="B224" t="s">
+        <v>430</v>
+      </c>
+      <c r="C224" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>43340</v>
+      </c>
+      <c r="B225" t="s">
+        <v>432</v>
+      </c>
+      <c r="C225" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>43342</v>
+      </c>
+      <c r="B226" t="s">
+        <v>434</v>
+      </c>
+      <c r="C226" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>43342</v>
+      </c>
+      <c r="B227" t="s">
+        <v>436</v>
+      </c>
+      <c r="C227" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>43340</v>
+      </c>
+      <c r="B228" t="s">
+        <v>438</v>
+      </c>
+      <c r="C228" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B229" t="s">
+        <v>440</v>
+      </c>
+      <c r="C229" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B230" t="s">
+        <v>442</v>
+      </c>
+      <c r="C230" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B231" t="s">
+        <v>444</v>
+      </c>
+      <c r="C231" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B232" t="s">
+        <v>446</v>
+      </c>
+      <c r="C232" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B233" t="s">
+        <v>448</v>
+      </c>
+      <c r="C233" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B234" t="s">
+        <v>450</v>
+      </c>
+      <c r="C234" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B235" t="s">
+        <v>452</v>
+      </c>
+      <c r="C235" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="462">
   <si>
     <t>Datum</t>
   </si>
@@ -1381,6 +1381,30 @@
   </si>
   <si>
     <t xml:space="preserve">Die Drohne ähneld immer mehr einem Kabelsalat… </t>
+  </si>
+  <si>
+    <t>2018-09-02 1.AVI</t>
+  </si>
+  <si>
+    <t>Sie Hobst langsam auf und ab. Ohne Abzustürzen. Sie mag nicht, wenn man landet und wieder abhebt….</t>
+  </si>
+  <si>
+    <t>2018-09-02 2.AVI</t>
+  </si>
+  <si>
+    <t>Noch ein zierlicher Versuch</t>
+  </si>
+  <si>
+    <t>2018-09-02 3.AVI</t>
+  </si>
+  <si>
+    <t>WICHTIG!!! DER ERSTE GUTE VOLLSTÄNDIGE FLUGVERSUCH. Nur der Ungeübte Pilot und der s***** X-Box Controller stehen noch im Weg</t>
+  </si>
+  <si>
+    <t>2018-09-02 4.AVI</t>
+  </si>
+  <si>
+    <t>Der Busch war wohl noch nass… Jetzt erstmal trocken werden</t>
   </si>
 </sst>
 </file>
@@ -1700,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4296,6 +4320,50 @@
         <v>453</v>
       </c>
     </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B236" t="s">
+        <v>454</v>
+      </c>
+      <c r="C236" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B237" t="s">
+        <v>456</v>
+      </c>
+      <c r="C237" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B238" t="s">
+        <v>458</v>
+      </c>
+      <c r="C238" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B239" t="s">
+        <v>460</v>
+      </c>
+      <c r="C239" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Tim\Documents\GitHub\Drohne\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="505">
   <si>
     <t>Datum</t>
   </si>
@@ -1405,6 +1405,135 @@
   </si>
   <si>
     <t>Der Busch war wohl noch nass… Jetzt erstmal trocken werden</t>
+  </si>
+  <si>
+    <t>2018-09-04 1.JPG</t>
+  </si>
+  <si>
+    <t>Nach einem Flugversuch war der kontroller vollkommen entstellt. Nach dem Erfolg ist die konstruktion zu instabil. Da muss was neues her</t>
+  </si>
+  <si>
+    <t>2018-09-02 6.JPG</t>
+  </si>
+  <si>
+    <t>Zunächst muss die powerbank weg. Jetzt wurde eine andere aufgebrochen und die Batterie unter der Drohne befestigt</t>
+  </si>
+  <si>
+    <t>2018-09-02 7.JPG</t>
+  </si>
+  <si>
+    <t>Das Kontroll-Brett mit Ladebuchse, Stromversorgung, Schalter und Ladungsstatus kommt als neues BMS an die alte stelle</t>
+  </si>
+  <si>
+    <t>2018-09-02 8.JPG</t>
+  </si>
+  <si>
+    <t>Hier der Anblick von hinten. Die drohne ist jetzt viel flacher, und die Sensoren sitzen näher am Masse/ Steuerzentrum. Zum an und ausschalten gibt es noch einen Kippschalter</t>
+  </si>
+  <si>
+    <t>2018-09-02 9.JPG</t>
+  </si>
+  <si>
+    <t>Von vorne… Die Drohne ist schon flacher, aber die Schaltbretter müssen noch gerade befestigt werden</t>
+  </si>
+  <si>
+    <t>2018-09-02 10.JPG</t>
+  </si>
+  <si>
+    <t>Die lösung auf das problem mit den vielen Steckern vom Rahmen zum Controller wurde jetzt in die Hand genommen und zusammengefasst</t>
+  </si>
+  <si>
+    <t>Die Batterie hat jetzt auch ein sicheres Abteil und die Kamera einen Platz…</t>
+  </si>
+  <si>
+    <t>2018-09-04 2.JPG</t>
+  </si>
+  <si>
+    <t>Das Gesicht der neuen Drohne</t>
+  </si>
+  <si>
+    <t>2018-09-04 3.JPG</t>
+  </si>
+  <si>
+    <t>Die Sicht der Drohne</t>
+  </si>
+  <si>
+    <t>2018-09-04 4.JPG</t>
+  </si>
+  <si>
+    <t>Trotz feuchtem Wetter muss mit dem neuen aufbau ein neuer Testflug geflogen werden</t>
+  </si>
+  <si>
+    <t>2018-09-04 6.JPG</t>
+  </si>
+  <si>
+    <t>Patrick ist da, um schöne Bilder zu machen. Diesmal wird es sogar Hochaufgelöst</t>
+  </si>
+  <si>
+    <t>2018-09-04 5.JPG</t>
+  </si>
+  <si>
+    <t>Aufschalten auf die Drohne</t>
+  </si>
+  <si>
+    <t>2018-09-04 7.MOV</t>
+  </si>
+  <si>
+    <t>Die Drohne hebt nicht ab. Es waren 2 Propeller falsch rum draufgesessen</t>
+  </si>
+  <si>
+    <t>2018-09-04 8.MOV</t>
+  </si>
+  <si>
+    <t>Schon  wieder ein absturz. Das ist niederschmetternd. Nach dem erfolg vor 2 Tagen, dachte ich, wir könnten es schaffen. Jetzt bin ich Zeitmäßig wieder 2-3 Tage los.</t>
+  </si>
+  <si>
+    <t>Heute ist schönes Wetter. Zeit um dem Problemen von Gestern nachzugehen. Der Start ist gut, bloß dann wieder, ein Salto</t>
+  </si>
+  <si>
+    <t>Und wieder</t>
+  </si>
+  <si>
+    <t>2018-09-05 3.mp4</t>
+  </si>
+  <si>
+    <t>2018-09-05 2.AVI</t>
+  </si>
+  <si>
+    <t>2018-09-05 1.AVI</t>
+  </si>
+  <si>
+    <t>2018-09-05 4.mp4</t>
+  </si>
+  <si>
+    <t>Falsche Propeller</t>
+  </si>
+  <si>
+    <t>2018-09-05 5.mp4</t>
+  </si>
+  <si>
+    <t>2018-09-05 6.AVI</t>
+  </si>
+  <si>
+    <t>Dieser Flug war schon wieder Okay. So gut, wie man mit einer Zeitverzögerung von 1-2s halt fliegen kann. Fernsteuern ist langsam aussichtslos</t>
+  </si>
+  <si>
+    <t>2018-09-05 7.AVI</t>
+  </si>
+  <si>
+    <t>Die Flüge werden immer besser. Ich kann die richtung einigermaßen bestimmen und die Drohne steht gerade in der Luft. Nur das reagieren auf das steigen und sinken der Drohne funktioniert nicht</t>
+  </si>
+  <si>
+    <t>2018-09-05 8.mp4</t>
+  </si>
+  <si>
+    <t>Apropos steigen und sinken. Den Kirschbaum brauchen wir auch nicht mehr schneiden :)</t>
+  </si>
+  <si>
+    <t>2018-09-05 9.mp4</t>
+  </si>
+  <si>
+    <t>Kontrollieren der richtungen in trocken+bungen. Soweit scheint alles zu klappen. Wüde die Drohne nicht abdriften, könnte man schon die erste automatation reinbringen</t>
   </si>
 </sst>
 </file>
@@ -1724,21 +1853,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="156.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43032</v>
       </c>
@@ -1760,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43036</v>
       </c>
@@ -1771,7 +1900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43042</v>
       </c>
@@ -1782,7 +1911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43048</v>
       </c>
@@ -1793,7 +1922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43051</v>
       </c>
@@ -1804,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43058</v>
       </c>
@@ -1815,7 +1944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43058</v>
       </c>
@@ -1826,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43063</v>
       </c>
@@ -1837,7 +1966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43063</v>
       </c>
@@ -1848,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43063</v>
       </c>
@@ -1859,7 +1988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43071</v>
       </c>
@@ -1870,7 +1999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -1881,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -1892,7 +2021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43077</v>
       </c>
@@ -1903,7 +2032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43078</v>
       </c>
@@ -1914,7 +2043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43079</v>
       </c>
@@ -1925,7 +2054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43080</v>
       </c>
@@ -1936,7 +2065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43090</v>
       </c>
@@ -1947,7 +2076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43090</v>
       </c>
@@ -1958,7 +2087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43090</v>
       </c>
@@ -1969,7 +2098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43091</v>
       </c>
@@ -1980,7 +2109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43091</v>
       </c>
@@ -1991,7 +2120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43097</v>
       </c>
@@ -2002,7 +2131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43097</v>
       </c>
@@ -2013,7 +2142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43097</v>
       </c>
@@ -2024,7 +2153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43102</v>
       </c>
@@ -2035,7 +2164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -2046,7 +2175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43103</v>
       </c>
@@ -2057,7 +2186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43103</v>
       </c>
@@ -2068,7 +2197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43103</v>
       </c>
@@ -2079,7 +2208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
@@ -2090,7 +2219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43103</v>
       </c>
@@ -2101,7 +2230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43103</v>
       </c>
@@ -2112,7 +2241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43103</v>
       </c>
@@ -2123,7 +2252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43104</v>
       </c>
@@ -2134,7 +2263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43105</v>
       </c>
@@ -2145,7 +2274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43107</v>
       </c>
@@ -2156,7 +2285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43107</v>
       </c>
@@ -2167,7 +2296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43111</v>
       </c>
@@ -2178,7 +2307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43115</v>
       </c>
@@ -2189,7 +2318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43116</v>
       </c>
@@ -2200,7 +2329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43114</v>
       </c>
@@ -2211,7 +2340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43118</v>
       </c>
@@ -2222,7 +2351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -2233,7 +2362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43162</v>
       </c>
@@ -2244,7 +2373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43164</v>
       </c>
@@ -2255,7 +2384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2266,7 +2395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43177</v>
       </c>
@@ -2277,7 +2406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43183</v>
       </c>
@@ -2288,7 +2417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43183</v>
       </c>
@@ -2299,7 +2428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43183</v>
       </c>
@@ -2310,7 +2439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43187</v>
       </c>
@@ -2321,7 +2450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43187</v>
       </c>
@@ -2332,7 +2461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43187</v>
       </c>
@@ -2343,7 +2472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43187</v>
       </c>
@@ -2354,7 +2483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43187</v>
       </c>
@@ -2365,7 +2494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43187</v>
       </c>
@@ -2376,7 +2505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43187</v>
       </c>
@@ -2387,7 +2516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43187</v>
       </c>
@@ -2398,7 +2527,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43187</v>
       </c>
@@ -2409,7 +2538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43188</v>
       </c>
@@ -2420,7 +2549,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43188</v>
       </c>
@@ -2431,7 +2560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43188</v>
       </c>
@@ -2442,7 +2571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43188</v>
       </c>
@@ -2453,7 +2582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43188</v>
       </c>
@@ -2464,7 +2593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43193</v>
       </c>
@@ -2475,7 +2604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43194</v>
       </c>
@@ -2486,7 +2615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43194</v>
       </c>
@@ -2497,7 +2626,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43195</v>
       </c>
@@ -2508,7 +2637,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43195</v>
       </c>
@@ -2519,7 +2648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43196</v>
       </c>
@@ -2530,7 +2659,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43197</v>
       </c>
@@ -2541,7 +2670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43199</v>
       </c>
@@ -2552,7 +2681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43203</v>
       </c>
@@ -2563,7 +2692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43211</v>
       </c>
@@ -2574,7 +2703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43211</v>
       </c>
@@ -2585,7 +2714,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43211</v>
       </c>
@@ -2596,7 +2725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43211</v>
       </c>
@@ -2607,7 +2736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43211</v>
       </c>
@@ -2618,7 +2747,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43211</v>
       </c>
@@ -2629,7 +2758,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43212</v>
       </c>
@@ -2640,7 +2769,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43212</v>
       </c>
@@ -2651,7 +2780,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43212</v>
       </c>
@@ -2662,7 +2791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43165</v>
       </c>
@@ -2673,7 +2802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43215</v>
       </c>
@@ -2684,7 +2813,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43218</v>
       </c>
@@ -2695,7 +2824,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43219</v>
       </c>
@@ -2706,7 +2835,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43219</v>
       </c>
@@ -2717,7 +2846,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43220</v>
       </c>
@@ -2728,7 +2857,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43220</v>
       </c>
@@ -2739,7 +2868,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43221</v>
       </c>
@@ -2750,7 +2879,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43221</v>
       </c>
@@ -2761,7 +2890,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43221</v>
       </c>
@@ -2772,7 +2901,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43221</v>
       </c>
@@ -2783,7 +2912,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43221</v>
       </c>
@@ -2794,7 +2923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43221</v>
       </c>
@@ -2805,7 +2934,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43221</v>
       </c>
@@ -2816,7 +2945,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43221</v>
       </c>
@@ -2827,7 +2956,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43221</v>
       </c>
@@ -2838,7 +2967,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43221</v>
       </c>
@@ -2849,7 +2978,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43224</v>
       </c>
@@ -2860,7 +2989,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43224</v>
       </c>
@@ -2871,7 +3000,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43224</v>
       </c>
@@ -2882,7 +3011,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43224</v>
       </c>
@@ -2893,7 +3022,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43224</v>
       </c>
@@ -2904,7 +3033,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43224</v>
       </c>
@@ -2915,7 +3044,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43224</v>
       </c>
@@ -2926,7 +3055,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43224</v>
       </c>
@@ -2937,7 +3066,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43224</v>
       </c>
@@ -2948,7 +3077,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43225</v>
       </c>
@@ -2959,7 +3088,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43226</v>
       </c>
@@ -2970,7 +3099,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43226</v>
       </c>
@@ -2981,7 +3110,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43227</v>
       </c>
@@ -2992,7 +3121,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43228</v>
       </c>
@@ -3003,7 +3132,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43228</v>
       </c>
@@ -3014,7 +3143,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43228</v>
       </c>
@@ -3025,7 +3154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43228</v>
       </c>
@@ -3036,7 +3165,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43228</v>
       </c>
@@ -3047,7 +3176,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43238</v>
       </c>
@@ -3058,7 +3187,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43246</v>
       </c>
@@ -3069,7 +3198,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43246</v>
       </c>
@@ -3080,7 +3209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43246</v>
       </c>
@@ -3091,7 +3220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43246</v>
       </c>
@@ -3102,7 +3231,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43246</v>
       </c>
@@ -3113,7 +3242,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43246</v>
       </c>
@@ -3124,7 +3253,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43246</v>
       </c>
@@ -3135,7 +3264,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43246</v>
       </c>
@@ -3146,7 +3275,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43248</v>
       </c>
@@ -3157,7 +3286,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43248</v>
       </c>
@@ -3168,7 +3297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43248</v>
       </c>
@@ -3179,7 +3308,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43248</v>
       </c>
@@ -3190,7 +3319,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43248</v>
       </c>
@@ -3201,7 +3330,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43248</v>
       </c>
@@ -3212,7 +3341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43249</v>
       </c>
@@ -3223,7 +3352,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43249</v>
       </c>
@@ -3234,7 +3363,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43250</v>
       </c>
@@ -3245,7 +3374,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43255</v>
       </c>
@@ -3256,7 +3385,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43258</v>
       </c>
@@ -3267,7 +3396,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43258</v>
       </c>
@@ -3278,7 +3407,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43264</v>
       </c>
@@ -3289,7 +3418,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43264</v>
       </c>
@@ -3300,7 +3429,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43264</v>
       </c>
@@ -3311,7 +3440,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43264</v>
       </c>
@@ -3322,7 +3451,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43265</v>
       </c>
@@ -3333,7 +3462,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43265</v>
       </c>
@@ -3344,7 +3473,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43265</v>
       </c>
@@ -3355,7 +3484,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43265</v>
       </c>
@@ -3366,7 +3495,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43267</v>
       </c>
@@ -3377,7 +3506,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43267</v>
       </c>
@@ -3388,7 +3517,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43267</v>
       </c>
@@ -3399,7 +3528,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43267</v>
       </c>
@@ -3410,7 +3539,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43267</v>
       </c>
@@ -3421,7 +3550,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43267</v>
       </c>
@@ -3432,7 +3561,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43267</v>
       </c>
@@ -3443,7 +3572,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43267</v>
       </c>
@@ -3454,7 +3583,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43267</v>
       </c>
@@ -3465,7 +3594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43267</v>
       </c>
@@ -3476,7 +3605,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43267</v>
       </c>
@@ -3487,7 +3616,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43267</v>
       </c>
@@ -3498,7 +3627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43270</v>
       </c>
@@ -3509,7 +3638,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43272</v>
       </c>
@@ -3520,7 +3649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43273</v>
       </c>
@@ -3531,7 +3660,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43274</v>
       </c>
@@ -3542,7 +3671,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43282</v>
       </c>
@@ -3553,7 +3682,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43294</v>
       </c>
@@ -3564,7 +3693,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43295</v>
       </c>
@@ -3575,7 +3704,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43296</v>
       </c>
@@ -3586,7 +3715,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43296</v>
       </c>
@@ -3597,7 +3726,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43296</v>
       </c>
@@ -3608,7 +3737,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43296</v>
       </c>
@@ -3619,7 +3748,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43297</v>
       </c>
@@ -3630,7 +3759,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43297</v>
       </c>
@@ -3641,7 +3770,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43298</v>
       </c>
@@ -3652,7 +3781,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43298</v>
       </c>
@@ -3663,7 +3792,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43298</v>
       </c>
@@ -3674,7 +3803,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43299</v>
       </c>
@@ -3685,7 +3814,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43300</v>
       </c>
@@ -3696,7 +3825,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43300</v>
       </c>
@@ -3707,7 +3836,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43300</v>
       </c>
@@ -3718,7 +3847,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43300</v>
       </c>
@@ -3729,7 +3858,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43300</v>
       </c>
@@ -3740,7 +3869,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43300</v>
       </c>
@@ -3751,7 +3880,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43300</v>
       </c>
@@ -3762,7 +3891,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43300</v>
       </c>
@@ -3773,7 +3902,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43300</v>
       </c>
@@ -3784,7 +3913,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43302</v>
       </c>
@@ -3795,7 +3924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43302</v>
       </c>
@@ -3806,7 +3935,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43302</v>
       </c>
@@ -3817,7 +3946,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43302</v>
       </c>
@@ -3828,7 +3957,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43302</v>
       </c>
@@ -3839,7 +3968,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43304</v>
       </c>
@@ -3850,7 +3979,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43304</v>
       </c>
@@ -3861,7 +3990,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43304</v>
       </c>
@@ -3872,7 +4001,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43304</v>
       </c>
@@ -3883,7 +4012,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43304</v>
       </c>
@@ -3894,7 +4023,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43304</v>
       </c>
@@ -3905,7 +4034,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43304</v>
       </c>
@@ -3916,7 +4045,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43304</v>
       </c>
@@ -3927,7 +4056,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43304</v>
       </c>
@@ -3938,7 +4067,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43304</v>
       </c>
@@ -3949,7 +4078,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43304</v>
       </c>
@@ -3960,7 +4089,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43305</v>
       </c>
@@ -3971,7 +4100,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43305</v>
       </c>
@@ -3982,7 +4111,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43314</v>
       </c>
@@ -3993,7 +4122,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43315</v>
       </c>
@@ -4001,7 +4130,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43317</v>
       </c>
@@ -4012,7 +4141,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43317</v>
       </c>
@@ -4023,7 +4152,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43317</v>
       </c>
@@ -4034,7 +4163,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43317</v>
       </c>
@@ -4045,7 +4174,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43317</v>
       </c>
@@ -4056,7 +4185,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43317</v>
       </c>
@@ -4067,7 +4196,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43325</v>
       </c>
@@ -4078,7 +4207,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43325</v>
       </c>
@@ -4089,7 +4218,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43325</v>
       </c>
@@ -4100,7 +4229,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43325</v>
       </c>
@@ -4111,7 +4240,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43325</v>
       </c>
@@ -4122,7 +4251,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43325</v>
       </c>
@@ -4133,7 +4262,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43325</v>
       </c>
@@ -4144,7 +4273,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43325</v>
       </c>
@@ -4155,7 +4284,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43339</v>
       </c>
@@ -4166,7 +4295,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43339</v>
       </c>
@@ -4177,7 +4306,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43327</v>
       </c>
@@ -4188,7 +4317,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43340</v>
       </c>
@@ -4199,7 +4328,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43340</v>
       </c>
@@ -4210,7 +4339,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43342</v>
       </c>
@@ -4221,7 +4350,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43342</v>
       </c>
@@ -4232,7 +4361,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43340</v>
       </c>
@@ -4243,7 +4372,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43344</v>
       </c>
@@ -4254,7 +4383,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43344</v>
       </c>
@@ -4265,7 +4394,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43344</v>
       </c>
@@ -4276,7 +4405,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43344</v>
       </c>
@@ -4287,7 +4416,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43344</v>
       </c>
@@ -4298,7 +4427,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43344</v>
       </c>
@@ -4309,7 +4438,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43344</v>
       </c>
@@ -4320,7 +4449,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>43345</v>
       </c>
@@ -4331,7 +4460,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>43345</v>
       </c>
@@ -4342,7 +4471,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>43345</v>
       </c>
@@ -4353,7 +4482,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>43345</v>
       </c>
@@ -4362,6 +4491,259 @@
       </c>
       <c r="C239" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B240" t="s">
+        <v>462</v>
+      </c>
+      <c r="C240" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B241" t="s">
+        <v>464</v>
+      </c>
+      <c r="C241" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B242" t="s">
+        <v>466</v>
+      </c>
+      <c r="C242" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B243" t="s">
+        <v>468</v>
+      </c>
+      <c r="C243" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B244" t="s">
+        <v>470</v>
+      </c>
+      <c r="C244" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B245" t="s">
+        <v>472</v>
+      </c>
+      <c r="C245" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B246" t="s">
+        <v>462</v>
+      </c>
+      <c r="C246" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B247" t="s">
+        <v>475</v>
+      </c>
+      <c r="C247" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B248" t="s">
+        <v>477</v>
+      </c>
+      <c r="C248" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B249" t="s">
+        <v>479</v>
+      </c>
+      <c r="C249" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B250" t="s">
+        <v>483</v>
+      </c>
+      <c r="C250" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B251" t="s">
+        <v>481</v>
+      </c>
+      <c r="C251" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B252" t="s">
+        <v>485</v>
+      </c>
+      <c r="C252" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>43347</v>
+      </c>
+      <c r="B253" t="s">
+        <v>487</v>
+      </c>
+      <c r="C253" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B254" t="s">
+        <v>493</v>
+      </c>
+      <c r="C254" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B255" t="s">
+        <v>492</v>
+      </c>
+      <c r="C255" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B256" t="s">
+        <v>491</v>
+      </c>
+      <c r="C256" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B257" t="s">
+        <v>494</v>
+      </c>
+      <c r="C257" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B258" t="s">
+        <v>496</v>
+      </c>
+      <c r="C258" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B259" t="s">
+        <v>497</v>
+      </c>
+      <c r="C259" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B260" t="s">
+        <v>499</v>
+      </c>
+      <c r="C260" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B261" t="s">
+        <v>501</v>
+      </c>
+      <c r="C261" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B262" t="s">
+        <v>503</v>
+      </c>
+      <c r="C262" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="509">
   <si>
     <t>Datum</t>
   </si>
@@ -1534,6 +1534,18 @@
   </si>
   <si>
     <t>Kontrollieren der richtungen in trocken+bungen. Soweit scheint alles zu klappen. Wüde die Drohne nicht abdriften, könnte man schon die erste automatation reinbringen</t>
+  </si>
+  <si>
+    <t>2018-09-07 1.jpg</t>
+  </si>
+  <si>
+    <t>Die Blumenerkennung und das umwandeln in richtungen/ signale für den Controller funktioniert. Die richtige Richtung wird eingeschlagen… Beim Entwickeln am raspberry pi ging das noch in 200 ms</t>
+  </si>
+  <si>
+    <t>2018-09-07 2.jpg</t>
+  </si>
+  <si>
+    <t>Das Programm auf dem Raspberry pi 3. Damit könnte man schon etwas mehr anfangen</t>
   </si>
 </sst>
 </file>
@@ -1853,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4746,6 +4758,28 @@
         <v>504</v>
       </c>
     </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B263" t="s">
+        <v>505</v>
+      </c>
+      <c r="C263" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B264" t="s">
+        <v>507</v>
+      </c>
+      <c r="C264" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="511">
   <si>
     <t>Datum</t>
   </si>
@@ -1546,6 +1546,12 @@
   </si>
   <si>
     <t>Das Programm auf dem Raspberry pi 3. Damit könnte man schon etwas mehr anfangen</t>
+  </si>
+  <si>
+    <t>2018-09-07 3.jpg</t>
+  </si>
+  <si>
+    <t>Unter Optimalen Bedingungen läuft die Blumenerkennung in 500ms auf dem Raspberry Pi zero. Zu allem Übel ist übrigens auch der WLAN chip auf dem Pi 3 gestorben, dont ask me why</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A265" sqref="A265"/>
@@ -4780,6 +4786,17 @@
         <v>508</v>
       </c>
     </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B265" t="s">
+        <v>509</v>
+      </c>
+      <c r="C265" t="s">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="520">
   <si>
     <t>Datum</t>
   </si>
@@ -1552,6 +1552,33 @@
   </si>
   <si>
     <t>Unter Optimalen Bedingungen läuft die Blumenerkennung in 500ms auf dem Raspberry Pi zero. Zu allem Übel ist übrigens auch der WLAN chip auf dem Pi 3 gestorben, dont ask me why</t>
+  </si>
+  <si>
+    <t>2018-09-07 4.JPG</t>
+  </si>
+  <si>
+    <t>Der Aufbau mit dem stärkeren Raspberry PI</t>
+  </si>
+  <si>
+    <t>2018-09-07 5.JPG</t>
+  </si>
+  <si>
+    <t>2018-09-08 1.AVI</t>
+  </si>
+  <si>
+    <t>Trockentests mit dem Controller. Inzwischen wieder kleiner PI</t>
+  </si>
+  <si>
+    <t>2018-09-08 2.AVI</t>
+  </si>
+  <si>
+    <t>Die Drohne fliegt der Blume hinterher. Die Update-Geschwindigkeit von ca. 1s merkt man zwar, aber grundsätzlich folgt die Drohne der Blume. OMG ich bin wirklich stolz drauf</t>
+  </si>
+  <si>
+    <t>2018-09-08 3.mp4</t>
+  </si>
+  <si>
+    <t>Narürlich kein Start ohne Fehlversuch</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4797,6 +4824,61 @@
         <v>510</v>
       </c>
     </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B266" t="s">
+        <v>511</v>
+      </c>
+      <c r="C266" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B267" t="s">
+        <v>513</v>
+      </c>
+      <c r="C267" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B268" t="s">
+        <v>514</v>
+      </c>
+      <c r="C268" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B269" t="s">
+        <v>516</v>
+      </c>
+      <c r="C269" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B270" t="s">
+        <v>518</v>
+      </c>
+      <c r="C270" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
   <si>
     <t>Datum</t>
   </si>
@@ -1579,6 +1579,51 @@
   </si>
   <si>
     <t>Narürlich kein Start ohne Fehlversuch</t>
+  </si>
+  <si>
+    <t>2018-09-08 4.AVI</t>
+  </si>
+  <si>
+    <t>Noch ein Absturz</t>
+  </si>
+  <si>
+    <t>2018-09-08 5.AVI</t>
+  </si>
+  <si>
+    <t>Endlich eine gelungene Episode</t>
+  </si>
+  <si>
+    <t>2018-09-08 6.mp4</t>
+  </si>
+  <si>
+    <t>2018-09-09 1.mp4</t>
+  </si>
+  <si>
+    <t>Die Funktion "Höhe Halten" ausprobiert. Die Drohne schwankt sehr stark und man kann eigentlich nicht voin Höhe halten sprechen</t>
+  </si>
+  <si>
+    <t>2018-09-09 2.mp4</t>
+  </si>
+  <si>
+    <t>Noch einmal das gleiche Spiel. Diesmal mit Datenkabel um die Daten zu erheben</t>
+  </si>
+  <si>
+    <t>2018-09-09 3.mp4</t>
+  </si>
+  <si>
+    <t>Diesmal wurde die höhe lange "gehalten". Alle Daten wurden ausgewertet und es ergiebt sich ein halbwegs stimmiges Bild:</t>
+  </si>
+  <si>
+    <t>2018-09-09 4.jpg</t>
+  </si>
+  <si>
+    <t>Die Graphen zeigen die auszugleichende Höhe/ Luftdruck und das andere Diagramm die Geschwidnigkeit der Motoren. Es kommt ein Verdacht auf:</t>
+  </si>
+  <si>
+    <t>Für diesen Test wurde die Drohne still gehalten. Sie sollte nur die höhe ausgeben. Währenddessen haben sich die Rotoren gedreht und so viel wind erzeugt, dass der Höhensensor Müll ausgegeben hat</t>
+  </si>
+  <si>
+    <t>2018-09-09 5.jpg</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,6 +4924,94 @@
         <v>519</v>
       </c>
     </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B271" t="s">
+        <v>520</v>
+      </c>
+      <c r="C271" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B272" t="s">
+        <v>522</v>
+      </c>
+      <c r="C272" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>43351</v>
+      </c>
+      <c r="B273" t="s">
+        <v>524</v>
+      </c>
+      <c r="C273" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B274" t="s">
+        <v>525</v>
+      </c>
+      <c r="C274" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B275" t="s">
+        <v>527</v>
+      </c>
+      <c r="C275" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B276" t="s">
+        <v>529</v>
+      </c>
+      <c r="C276" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B277" t="s">
+        <v>531</v>
+      </c>
+      <c r="C277" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>43352</v>
+      </c>
+      <c r="B278" t="s">
+        <v>534</v>
+      </c>
+      <c r="C278" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="549">
   <si>
     <t>Datum</t>
   </si>
@@ -1624,6 +1624,48 @@
   </si>
   <si>
     <t>2018-09-09 5.jpg</t>
+  </si>
+  <si>
+    <t>2018-09-16.jpg</t>
+  </si>
+  <si>
+    <t>Gut, dass wir github benutzen. Es ist ein Unfall beim Hochladen von Dateien passiert</t>
+  </si>
+  <si>
+    <t>2018-09-21 1.JPG</t>
+  </si>
+  <si>
+    <t>Das gehäuse für den höhensensor wurde gedruckt. Jetzt läuft er hoffentlich besser</t>
+  </si>
+  <si>
+    <t>Nahaufnahme</t>
+  </si>
+  <si>
+    <t>2018-09-21 2.JPG</t>
+  </si>
+  <si>
+    <t>Das Oszilloskop ist weg. Jetzt muss ich wieder einen Arduino zum debuggen der Leitungen verwenden</t>
+  </si>
+  <si>
+    <t>2018-09-27 2.AVI</t>
+  </si>
+  <si>
+    <t>Endlich dreht sich der Rotor wieder. Diesmal von einem anderen Anschluss</t>
+  </si>
+  <si>
+    <t>2018-09-27 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-09-27 3.AVI</t>
+  </si>
+  <si>
+    <t>Und alle 4. Das ist immer gar nicht so leicht, wie man sich es vorstellt</t>
+  </si>
+  <si>
+    <t>2018-09-29.pdf</t>
+  </si>
+  <si>
+    <t>Die neusten (auch älteren) änderungen an der kontrollschaltung wurden upgedated. Außerdem muss der neue YMFC umgeschrieben werden, sodass ich nach 8h tippen sagen kann, dass meine finger bluten! :)</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5012,6 +5054,83 @@
         <v>533</v>
       </c>
     </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B279" t="s">
+        <v>535</v>
+      </c>
+      <c r="C279" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>43364</v>
+      </c>
+      <c r="B280" t="s">
+        <v>537</v>
+      </c>
+      <c r="C280" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>43364</v>
+      </c>
+      <c r="B281" t="s">
+        <v>540</v>
+      </c>
+      <c r="C281" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B282" t="s">
+        <v>544</v>
+      </c>
+      <c r="C282" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B283" t="s">
+        <v>542</v>
+      </c>
+      <c r="C283" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B284" t="s">
+        <v>545</v>
+      </c>
+      <c r="C284" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B285" t="s">
+        <v>547</v>
+      </c>
+      <c r="C285" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="566">
   <si>
     <t>Datum</t>
   </si>
@@ -1666,6 +1666,57 @@
   </si>
   <si>
     <t>Die neusten (auch älteren) änderungen an der kontrollschaltung wurden upgedated. Außerdem muss der neue YMFC umgeschrieben werden, sodass ich nach 8h tippen sagen kann, dass meine finger bluten! :)</t>
+  </si>
+  <si>
+    <t>2018-10-12 1.mp4</t>
+  </si>
+  <si>
+    <t>2018-10-12 3.mp4</t>
+  </si>
+  <si>
+    <t>2018-10-12 4.mp4</t>
+  </si>
+  <si>
+    <t>2018-10-12 5.mp4</t>
+  </si>
+  <si>
+    <t>2018-10-12 6.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-12 7.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-12 8.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-12 9.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-12 2.mp4</t>
+  </si>
+  <si>
+    <t>Start mit YMFC Autonomous, Altitude Hold funktioniert noch nicht</t>
+  </si>
+  <si>
+    <t>Weiterer Flug. Bisher längster. Der Rekord (unaufgezeichnet) liegt bei ungefähr 6m Flughöhe und so 2 Minuten</t>
+  </si>
+  <si>
+    <t>Analyse der Sensorwerte. Die Höhe spielt verrückt!</t>
+  </si>
+  <si>
+    <t>Langer Drohnenflug. Mehrere "Auftatzer" aber durchaus stabil</t>
+  </si>
+  <si>
+    <t>Unsanfte Landung nach dem Einschalten der Altitude Hold funktion. Da muss noch nachjustiert werden</t>
+  </si>
+  <si>
+    <t>Die Landungen haben der Batterie zugesetzt. Ein Wunder, dass nichts passiert ist</t>
+  </si>
+  <si>
+    <t>Es gibt glücklicherweise Zwei Zellen. Eine ist noch intakt. Die Ladung von einem Akku reicht!</t>
+  </si>
+  <si>
+    <t>Der Höhensensor auf der Drohne in nahaufnahme (hab ich schon vor ein paar tagen gemacht, aber Dokumentation ist aufwendig)</t>
   </si>
 </sst>
 </file>
@@ -1985,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,6 +5182,105 @@
         <v>548</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B286" t="s">
+        <v>549</v>
+      </c>
+      <c r="C286" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B287" t="s">
+        <v>557</v>
+      </c>
+      <c r="C287" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B288" t="s">
+        <v>550</v>
+      </c>
+      <c r="C288" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B289" t="s">
+        <v>551</v>
+      </c>
+      <c r="C289" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B290" t="s">
+        <v>552</v>
+      </c>
+      <c r="C290" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B291" t="s">
+        <v>553</v>
+      </c>
+      <c r="C291" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B292" t="s">
+        <v>554</v>
+      </c>
+      <c r="C292" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B293" t="s">
+        <v>555</v>
+      </c>
+      <c r="C293" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B294" t="s">
+        <v>556</v>
+      </c>
+      <c r="C294" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Dokumentation/Schritte.xlsx
+++ b/Dokumentation/Schritte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="581">
   <si>
     <t>Datum</t>
   </si>
@@ -1717,6 +1717,51 @@
   </si>
   <si>
     <t>Der Höhensensor auf der Drohne in nahaufnahme (hab ich schon vor ein paar tagen gemacht, aber Dokumentation ist aufwendig)</t>
+  </si>
+  <si>
+    <t>Vorletzter Entwicklungstag</t>
+  </si>
+  <si>
+    <t>Letzter Entwicklungstag</t>
+  </si>
+  <si>
+    <t>2018-10-14 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-21 2.JPG</t>
+  </si>
+  <si>
+    <t>Drohne stürzt bei versuch ab, Kabel schmoren durch das Zimmer stikt. Gott sei dank steht das Haus noch</t>
+  </si>
+  <si>
+    <t>2018-10-14 2.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-14 3.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-21 3.JPG</t>
+  </si>
+  <si>
+    <t>Höhensensor ist gekommen zum Ausprobieren</t>
+  </si>
+  <si>
+    <t>Bei einem weiteren Flugversuch macht ein Motor seltsame geräusche. Bis man den winzigen stein gefunden hat vergehen auch wieder ewigkeiten</t>
+  </si>
+  <si>
+    <t>2018-10-21 1.JPG</t>
+  </si>
+  <si>
+    <t>2018-10-30.JPG</t>
+  </si>
+  <si>
+    <t>Wie viel Pech muss man haben, dass der SD-Kartenleser am Raspi kaputt geht??? Nichts, was sich nicht lösen ließe</t>
+  </si>
+  <si>
+    <t>Upgrade auf GPS-Sensor (unten) und umrüstung auf den RasPi3</t>
+  </si>
+  <si>
+    <t>Die Löstspitze ist inzwischen auch durchgerostet und fast zerstört XD</t>
   </si>
 </sst>
 </file>
@@ -2036,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,6 +5326,99 @@
         <v>278</v>
       </c>
     </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B295" t="s">
+        <v>568</v>
+      </c>
+      <c r="C295" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B296" t="s">
+        <v>571</v>
+      </c>
+      <c r="C296" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>43387</v>
+      </c>
+      <c r="B297" t="s">
+        <v>572</v>
+      </c>
+      <c r="C297" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B298" t="s">
+        <v>576</v>
+      </c>
+      <c r="C298" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B299" t="s">
+        <v>569</v>
+      </c>
+      <c r="C299" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B300" t="s">
+        <v>573</v>
+      </c>
+      <c r="C300" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B301" t="s">
+        <v>577</v>
+      </c>
+      <c r="C301" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>43421</v>
+      </c>
+      <c r="C302" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>43422</v>
+      </c>
+      <c r="C303" t="s">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
